--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_14_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_14_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3803620.282563084</v>
+        <v>3918285.77116374</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12007768.6308527</v>
+        <v>12095401.94051269</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>97255.02688733286</v>
+        <v>55022.46577372769</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7267742.590689084</v>
+        <v>7266958.026018403</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>12.5570806207856</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="G2" t="n">
-        <v>6.876045741711437</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>6.876045741711437</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -744,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -789,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>6.05642108929943</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>12.5570806207856</v>
       </c>
     </row>
     <row r="4">
@@ -820,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>12.5570806207856</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>12.5570806207856</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +913,7 @@
         <v>14.2564493878129</v>
       </c>
       <c r="H5" t="n">
-        <v>12.5570806207856</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>14.2564493878129</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.5570806207856</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -993,35 +995,35 @@
         <v>14.2564493878129</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>14.2564493878129</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
@@ -1029,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>12.5570806207856</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>12.5570806207856</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>14.2564493878129</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
+      <c r="X7" t="n">
         <v>14.2564493878129</v>
-      </c>
-      <c r="T7" t="n">
-        <v>14.2564493878129</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>12.5570806207856</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>124.1001261625138</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>83.62810878954042</v>
       </c>
       <c r="G8" t="n">
-        <v>13.43106077840151</v>
+        <v>83.62810878954042</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>32.29740412731165</v>
+        <v>45.55325126742912</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>28.10638695439809</v>
       </c>
       <c r="U8" t="n">
-        <v>124.1001261625138</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>56.70288047651754</v>
+        <v>83.62810878954042</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>124.1001261625138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,22 +1214,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>124.1001261625138</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>124.1001261625138</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>124.1001261625138</v>
+        <v>73.65963822182718</v>
       </c>
       <c r="G9" t="n">
-        <v>6.743703994558459</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>102.5636871293837</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1266,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>83.62810878954042</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>83.62810878954042</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>83.62810878954042</v>
       </c>
     </row>
     <row r="10">
@@ -1294,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>124.1001261625138</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>49.873721324353</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>124.1001261625138</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.85952542406184</v>
+        <v>23.78591689747416</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>124.1001261625138</v>
+        <v>83.62810878954042</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>83.62810878954042</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>83.62810878954042</v>
       </c>
       <c r="W10" t="n">
-        <v>93.44786569988027</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C11" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D11" t="n">
         <v>323.072839268469</v>
@@ -1379,10 +1381,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F11" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G11" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H11" t="n">
         <v>255.2416659947559</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>60.32014642295086</v>
+        <v>60.32014642295171</v>
       </c>
       <c r="T11" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U11" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645695</v>
       </c>
       <c r="V11" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W11" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X11" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y11" t="n">
         <v>354.6277363038396</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C13" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D13" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E13" t="n">
         <v>114.8237602943552</v>
       </c>
       <c r="F13" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G13" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H13" t="n">
-        <v>110.1245053442995</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I13" t="n">
-        <v>54.52629139453014</v>
+        <v>54.52629139453005</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221738</v>
       </c>
       <c r="S13" t="n">
         <v>152.2386502424833</v>
@@ -1582,16 +1584,16 @@
         <v>186.487270040142</v>
       </c>
       <c r="U13" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V13" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W13" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X13" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y13" t="n">
         <v>186.9744509998808</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C14" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D14" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E14" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F14" t="n">
         <v>375.2658433894975</v>
@@ -1622,7 +1624,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H14" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>60.32014642295086</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T14" t="n">
         <v>168.9926026545724</v>
@@ -1673,7 +1675,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y14" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="15">
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221603</v>
       </c>
       <c r="S16" t="n">
         <v>152.2386502424833</v>
@@ -1819,7 +1821,7 @@
         <v>186.4872700401421</v>
       </c>
       <c r="U16" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V16" t="n">
         <v>220.5274409716141</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
         <v>375.2658433894975</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645686</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V17" t="n">
         <v>296.142056117921</v>
@@ -1907,10 +1909,10 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262546</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="18">
@@ -2008,7 +2010,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
         <v>113.8108456707173</v>
@@ -2020,7 +2022,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221603</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612648</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V19" t="n">
         <v>220.5274409716141</v>
@@ -2068,7 +2070,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D20" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894975</v>
@@ -2096,7 +2098,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2147,7 +2149,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="21">
@@ -2245,7 +2247,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
         <v>113.8108456707173</v>
@@ -2257,7 +2259,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139452893</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
         <v>254.5831063612652</v>
@@ -2305,7 +2307,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2374,7 @@
         <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645686</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V23" t="n">
         <v>296.142056117921</v>
@@ -2494,7 +2496,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>42.04747230221578</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
         <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V25" t="n">
         <v>220.5274409716141</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>370.3534632974255</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>352.8925134049525</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>342.3026632546279</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>369.5499917062068</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>394.4956673756564</v>
       </c>
       <c r="G26" t="n">
-        <v>410.1644063769637</v>
+        <v>397.7840280109087</v>
       </c>
       <c r="H26" t="n">
-        <v>286.8518683469699</v>
+        <v>274.4714899809148</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605497</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>91.93034877516573</v>
+        <v>79.54997040911073</v>
       </c>
       <c r="T26" t="n">
-        <v>200.6028050067863</v>
+        <v>188.2224266407307</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9345864167828</v>
+        <v>238.5542080507289</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>315.3718801040799</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>336.860590351358</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>357.350722312414</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>373.8575602899986</v>
       </c>
     </row>
     <row r="27">
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>26.4841200321621</v>
+        <v>167.4516018158823</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>154.8664427325728</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>136.2350946521574</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.0406696568762</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6861009032421</v>
+        <v>153.3057225371871</v>
       </c>
       <c r="H28" t="n">
-        <v>141.7347076965137</v>
+        <v>84.42673532874558</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>61.27729628837473</v>
       </c>
       <c r="S28" t="n">
-        <v>183.8488525946973</v>
+        <v>171.4684742286423</v>
       </c>
       <c r="T28" t="n">
-        <v>218.097472392356</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1933087134791</v>
+        <v>273.8129303474241</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>239.757264957773</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>274.142619970536</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>213.3292770229822</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>206.2042749860398</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>380.8243836321612</v>
+        <v>370.3534632974255</v>
       </c>
       <c r="C29" t="n">
-        <v>363.3634337396882</v>
+        <v>352.8925134049525</v>
       </c>
       <c r="D29" t="n">
-        <v>352.7735835893636</v>
+        <v>342.3026632546279</v>
       </c>
       <c r="E29" t="n">
-        <v>380.0209120409424</v>
+        <v>369.5499917062067</v>
       </c>
       <c r="F29" t="n">
-        <v>404.966587710392</v>
+        <v>394.4956673756564</v>
       </c>
       <c r="G29" t="n">
-        <v>408.2549483456443</v>
+        <v>397.7840280109086</v>
       </c>
       <c r="H29" t="n">
-        <v>284.9424103156505</v>
+        <v>274.4714899809148</v>
       </c>
       <c r="I29" t="n">
-        <v>10.47092033473558</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>90.02089074384654</v>
+        <v>79.54997040911063</v>
       </c>
       <c r="T29" t="n">
-        <v>198.6933469754669</v>
+        <v>188.2224266407307</v>
       </c>
       <c r="U29" t="n">
-        <v>249.0251283854624</v>
+        <v>238.554208050728</v>
       </c>
       <c r="V29" t="n">
-        <v>325.8428004388155</v>
+        <v>315.3718801040798</v>
       </c>
       <c r="W29" t="n">
-        <v>347.3315106860936</v>
+        <v>336.8605903513579</v>
       </c>
       <c r="X29" t="n">
-        <v>367.8216426471496</v>
+        <v>357.350722312414</v>
       </c>
       <c r="Y29" t="n">
-        <v>384.3284806247342</v>
+        <v>373.8575602899985</v>
       </c>
     </row>
     <row r="30">
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>177.9225221506179</v>
+        <v>167.4516018158822</v>
       </c>
       <c r="C31" t="n">
-        <v>116.0422528360992</v>
+        <v>154.8664427325728</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>136.2350946521573</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.7766428719227</v>
+        <v>153.305722537187</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>129.3543293304585</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>73.75611538068895</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>71.74821662311034</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.9393945633779</v>
+        <v>171.4684742286422</v>
       </c>
       <c r="T31" t="n">
-        <v>216.1880143610366</v>
+        <v>205.7170940263009</v>
       </c>
       <c r="U31" t="n">
-        <v>284.2838506821597</v>
+        <v>143.7300928839726</v>
       </c>
       <c r="V31" t="n">
-        <v>250.2281852925086</v>
+        <v>239.7572649577729</v>
       </c>
       <c r="W31" t="n">
-        <v>284.6135403052716</v>
+        <v>274.1426199705359</v>
       </c>
       <c r="X31" t="n">
-        <v>223.8001973577178</v>
+        <v>213.3292770229821</v>
       </c>
       <c r="Y31" t="n">
-        <v>216.6751953207754</v>
+        <v>206.2042749860397</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
@@ -3196,7 +3198,7 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707185</v>
       </c>
       <c r="G34" t="n">
         <v>134.0758985510282</v>
@@ -3205,7 +3207,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221603</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401418</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612644</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V34" t="n">
         <v>220.5274409716141</v>
@@ -3272,7 +3274,7 @@
         <v>323.072839268469</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200476</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
         <v>375.2658433894975</v>
@@ -3284,7 +3286,7 @@
         <v>255.2416659947559</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-1.7477990782883e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139452984</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612655</v>
       </c>
       <c r="V37" t="n">
         <v>220.5274409716141</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645686</v>
       </c>
       <c r="V38" t="n">
         <v>296.142056117921</v>
@@ -3664,7 +3666,7 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659992</v>
       </c>
       <c r="E40" t="n">
         <v>114.8237602943552</v>
@@ -3679,7 +3681,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3740,22 +3742,22 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0728392684687</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E41" t="n">
         <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295178</v>
+        <v>60.3201464229517</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645681</v>
       </c>
       <c r="V41" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W41" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y41" t="n">
         <v>354.6277363038396</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C43" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464161</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453003</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221578</v>
+        <v>42.0474723022157</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T43" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612651</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W43" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y43" t="n">
         <v>186.9744509998808</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>353.033097342586</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C44" t="n">
-        <v>335.572147450113</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D44" t="n">
-        <v>324.9822972997883</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E44" t="n">
-        <v>352.2296257513672</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F44" t="n">
-        <v>377.1753014208168</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G44" t="n">
-        <v>380.4636620560691</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H44" t="n">
-        <v>257.1511240260753</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.49719201579985</v>
+        <v>60.32014642295171</v>
       </c>
       <c r="T44" t="n">
-        <v>170.9020606858917</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U44" t="n">
-        <v>221.2338420958882</v>
+        <v>219.3243840645699</v>
       </c>
       <c r="V44" t="n">
-        <v>298.0515141492403</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W44" t="n">
-        <v>319.5402243965184</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X44" t="n">
-        <v>340.0303563575744</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y44" t="n">
-        <v>356.537194335159</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150.1312358610427</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C46" t="n">
-        <v>137.5460767777332</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D46" t="n">
-        <v>73.39172166423903</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E46" t="n">
-        <v>116.7332183256746</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F46" t="n">
-        <v>115.7203037020367</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G46" t="n">
-        <v>135.9853565823475</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H46" t="n">
-        <v>112.0339633756191</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I46" t="n">
-        <v>56.43574942584948</v>
+        <v>54.52629139453005</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>43.95693033353514</v>
+        <v>42.0474723022157</v>
       </c>
       <c r="S46" t="n">
-        <v>154.1481082738027</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T46" t="n">
-        <v>188.3967280714614</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U46" t="n">
-        <v>256.4925643925845</v>
+        <v>254.5831063612673</v>
       </c>
       <c r="V46" t="n">
-        <v>222.4368990029334</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W46" t="n">
-        <v>256.8222540156964</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X46" t="n">
-        <v>196.0089110681426</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y46" t="n">
-        <v>188.8839090312002</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.55868221764227</v>
+        <v>42.62534362416785</v>
       </c>
       <c r="C2" t="n">
-        <v>20.55868221764227</v>
+        <v>29.9414238051925</v>
       </c>
       <c r="D2" t="n">
-        <v>20.55868221764227</v>
+        <v>29.9414238051925</v>
       </c>
       <c r="E2" t="n">
-        <v>20.55868221764227</v>
+        <v>29.9414238051925</v>
       </c>
       <c r="F2" t="n">
-        <v>13.6131814684388</v>
+        <v>15.54096987810877</v>
       </c>
       <c r="G2" t="n">
-        <v>6.667680719235332</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="H2" t="n">
-        <v>6.667680719235332</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="J2" t="n">
-        <v>7.357368943631237</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="K2" t="n">
-        <v>7.357368943631237</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="L2" t="n">
-        <v>7.357368943631237</v>
+        <v>14.68414286944729</v>
       </c>
       <c r="M2" t="n">
-        <v>13.8896123982571</v>
+        <v>28.79802776338205</v>
       </c>
       <c r="N2" t="n">
-        <v>13.8896123982571</v>
+        <v>28.79802776338205</v>
       </c>
       <c r="O2" t="n">
-        <v>13.8896123982571</v>
+        <v>42.91191265731682</v>
       </c>
       <c r="P2" t="n">
-        <v>20.69689768255142</v>
+        <v>42.91191265731682</v>
       </c>
       <c r="Q2" t="n">
-        <v>27.50418296684575</v>
+        <v>57.02579755125159</v>
       </c>
       <c r="R2" t="n">
-        <v>20.55868221764227</v>
+        <v>42.62534362416785</v>
       </c>
       <c r="S2" t="n">
-        <v>20.55868221764227</v>
+        <v>42.62534362416785</v>
       </c>
       <c r="T2" t="n">
-        <v>20.55868221764227</v>
+        <v>42.62534362416785</v>
       </c>
       <c r="U2" t="n">
-        <v>20.55868221764227</v>
+        <v>42.62534362416785</v>
       </c>
       <c r="V2" t="n">
-        <v>20.55868221764227</v>
+        <v>42.62534362416785</v>
       </c>
       <c r="W2" t="n">
-        <v>20.55868221764227</v>
+        <v>42.62534362416785</v>
       </c>
       <c r="X2" t="n">
-        <v>20.55868221764227</v>
+        <v>42.62534362416785</v>
       </c>
       <c r="Y2" t="n">
-        <v>20.55868221764227</v>
+        <v>42.62534362416785</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.38658590694733</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="C3" t="n">
-        <v>21.38658590694733</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="D3" t="n">
-        <v>21.38658590694733</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="E3" t="n">
-        <v>14.44108515774386</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="F3" t="n">
-        <v>7.495584408540386</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="G3" t="n">
-        <v>7.495584408540386</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="J3" t="n">
-        <v>7.357368943631237</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="K3" t="n">
-        <v>7.357368943631237</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="L3" t="n">
-        <v>13.8896123982571</v>
+        <v>6.066505025875651</v>
       </c>
       <c r="M3" t="n">
-        <v>13.8896123982571</v>
+        <v>6.066505025875651</v>
       </c>
       <c r="N3" t="n">
-        <v>20.69689768255142</v>
+        <v>14.68414286944729</v>
       </c>
       <c r="O3" t="n">
-        <v>20.69689768255142</v>
+        <v>28.79802776338205</v>
       </c>
       <c r="P3" t="n">
-        <v>20.69689768255142</v>
+        <v>42.91191265731682</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.50418296684575</v>
+        <v>57.02579755125159</v>
       </c>
       <c r="R3" t="n">
-        <v>27.50418296684575</v>
+        <v>57.02579755125159</v>
       </c>
       <c r="S3" t="n">
-        <v>27.50418296684575</v>
+        <v>57.02579755125159</v>
       </c>
       <c r="T3" t="n">
-        <v>21.38658590694733</v>
+        <v>42.62534362416785</v>
       </c>
       <c r="U3" t="n">
-        <v>21.38658590694733</v>
+        <v>42.62534362416785</v>
       </c>
       <c r="V3" t="n">
-        <v>21.38658590694733</v>
+        <v>28.22488969708412</v>
       </c>
       <c r="W3" t="n">
-        <v>21.38658590694733</v>
+        <v>13.82443577000038</v>
       </c>
       <c r="X3" t="n">
-        <v>21.38658590694733</v>
+        <v>13.82443577000038</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.38658590694733</v>
+        <v>1.140515951025032</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5500836593369149</v>
+        <v>42.62534362416785</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5500836593369149</v>
+        <v>42.62534362416785</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5500836593369149</v>
+        <v>29.9414238051925</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5500836593369149</v>
+        <v>15.54096987810877</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5500836593369149</v>
+        <v>15.54096987810877</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="L4" t="n">
-        <v>7.357368943631237</v>
+        <v>14.68414286944729</v>
       </c>
       <c r="M4" t="n">
-        <v>14.16465422792556</v>
+        <v>28.79802776338205</v>
       </c>
       <c r="N4" t="n">
-        <v>20.97193951221988</v>
+        <v>42.91191265731682</v>
       </c>
       <c r="O4" t="n">
-        <v>27.50418296684575</v>
+        <v>57.02579755125159</v>
       </c>
       <c r="P4" t="n">
-        <v>27.50418296684575</v>
+        <v>57.02579755125159</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.50418296684575</v>
+        <v>42.62534362416785</v>
       </c>
       <c r="R4" t="n">
-        <v>27.50418296684575</v>
+        <v>42.62534362416785</v>
       </c>
       <c r="S4" t="n">
-        <v>20.55868221764227</v>
+        <v>42.62534362416785</v>
       </c>
       <c r="T4" t="n">
-        <v>13.6131814684388</v>
+        <v>42.62534362416785</v>
       </c>
       <c r="U4" t="n">
-        <v>7.495584408540386</v>
+        <v>42.62534362416785</v>
       </c>
       <c r="V4" t="n">
-        <v>7.495584408540386</v>
+        <v>42.62534362416785</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5500836593369149</v>
+        <v>42.62534362416785</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5500836593369149</v>
+        <v>42.62534362416785</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5500836593369149</v>
+        <v>42.62534362416785</v>
       </c>
     </row>
     <row r="5">
@@ -4547,16 +4549,16 @@
         <v>42.62534362416785</v>
       </c>
       <c r="D5" t="n">
-        <v>42.62534362416785</v>
+        <v>29.9414238051925</v>
       </c>
       <c r="E5" t="n">
-        <v>42.62534362416785</v>
+        <v>29.9414238051925</v>
       </c>
       <c r="F5" t="n">
-        <v>28.22488969708412</v>
+        <v>15.54096987810877</v>
       </c>
       <c r="G5" t="n">
-        <v>13.82443577000038</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="H5" t="n">
         <v>1.140515951025032</v>
@@ -4568,22 +4570,22 @@
         <v>1.140515951025032</v>
       </c>
       <c r="K5" t="n">
-        <v>15.2544008449598</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="L5" t="n">
-        <v>15.2544008449598</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="M5" t="n">
+        <v>1.140515951025032</v>
+      </c>
+      <c r="N5" t="n">
+        <v>14.68414286944729</v>
+      </c>
+      <c r="O5" t="n">
         <v>28.79802776338205</v>
       </c>
-      <c r="N5" t="n">
-        <v>28.79802776338205</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>42.91191265731682</v>
-      </c>
-      <c r="P5" t="n">
-        <v>57.02579755125159</v>
       </c>
       <c r="Q5" t="n">
         <v>57.02579755125159</v>
@@ -4595,19 +4597,19 @@
         <v>57.02579755125159</v>
       </c>
       <c r="T5" t="n">
-        <v>42.62534362416785</v>
+        <v>57.02579755125159</v>
       </c>
       <c r="U5" t="n">
-        <v>42.62534362416785</v>
+        <v>57.02579755125159</v>
       </c>
       <c r="V5" t="n">
-        <v>42.62534362416785</v>
+        <v>57.02579755125159</v>
       </c>
       <c r="W5" t="n">
-        <v>42.62534362416785</v>
+        <v>57.02579755125159</v>
       </c>
       <c r="X5" t="n">
-        <v>42.62534362416785</v>
+        <v>57.02579755125159</v>
       </c>
       <c r="Y5" t="n">
         <v>42.62534362416785</v>
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44.34187773227623</v>
+        <v>29.9414238051925</v>
       </c>
       <c r="C6" t="n">
-        <v>44.34187773227623</v>
+        <v>29.9414238051925</v>
       </c>
       <c r="D6" t="n">
-        <v>44.34187773227623</v>
+        <v>29.9414238051925</v>
       </c>
       <c r="E6" t="n">
-        <v>44.34187773227623</v>
+        <v>29.9414238051925</v>
       </c>
       <c r="F6" t="n">
-        <v>44.34187773227623</v>
+        <v>29.9414238051925</v>
       </c>
       <c r="G6" t="n">
-        <v>29.9414238051925</v>
+        <v>15.54096987810877</v>
       </c>
       <c r="H6" t="n">
-        <v>15.54096987810877</v>
+        <v>1.140515951025032</v>
       </c>
       <c r="I6" t="n">
         <v>1.140515951025032</v>
@@ -4650,46 +4652,46 @@
         <v>15.2544008449598</v>
       </c>
       <c r="L6" t="n">
-        <v>15.2544008449598</v>
+        <v>29.36828573889456</v>
       </c>
       <c r="M6" t="n">
-        <v>15.2544008449598</v>
+        <v>29.36828573889456</v>
       </c>
       <c r="N6" t="n">
-        <v>29.36828573889456</v>
+        <v>43.48217063282933</v>
       </c>
       <c r="O6" t="n">
-        <v>29.36828573889456</v>
+        <v>43.48217063282933</v>
       </c>
       <c r="P6" t="n">
-        <v>42.91191265731682</v>
+        <v>57.02579755125159</v>
       </c>
       <c r="Q6" t="n">
         <v>57.02579755125159</v>
       </c>
       <c r="R6" t="n">
-        <v>57.02579755125159</v>
+        <v>42.62534362416785</v>
       </c>
       <c r="S6" t="n">
-        <v>57.02579755125159</v>
+        <v>42.62534362416785</v>
       </c>
       <c r="T6" t="n">
-        <v>57.02579755125159</v>
+        <v>42.62534362416785</v>
       </c>
       <c r="U6" t="n">
-        <v>57.02579755125159</v>
+        <v>29.9414238051925</v>
       </c>
       <c r="V6" t="n">
-        <v>57.02579755125159</v>
+        <v>29.9414238051925</v>
       </c>
       <c r="W6" t="n">
-        <v>57.02579755125159</v>
+        <v>29.9414238051925</v>
       </c>
       <c r="X6" t="n">
-        <v>57.02579755125159</v>
+        <v>29.9414238051925</v>
       </c>
       <c r="Y6" t="n">
-        <v>57.02579755125159</v>
+        <v>29.9414238051925</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.140515951025032</v>
+        <v>13.82443577000038</v>
       </c>
       <c r="C7" t="n">
-        <v>1.140515951025032</v>
+        <v>13.82443577000038</v>
       </c>
       <c r="D7" t="n">
-        <v>1.140515951025032</v>
+        <v>13.82443577000038</v>
       </c>
       <c r="E7" t="n">
-        <v>1.140515951025032</v>
+        <v>13.82443577000038</v>
       </c>
       <c r="F7" t="n">
         <v>1.140515951025032</v>
@@ -4732,10 +4734,10 @@
         <v>14.68414286944729</v>
       </c>
       <c r="M7" t="n">
-        <v>14.68414286944729</v>
+        <v>28.79802776338205</v>
       </c>
       <c r="N7" t="n">
-        <v>28.79802776338205</v>
+        <v>42.91191265731682</v>
       </c>
       <c r="O7" t="n">
         <v>42.91191265731682</v>
@@ -4744,31 +4746,31 @@
         <v>57.02579755125159</v>
       </c>
       <c r="Q7" t="n">
+        <v>57.02579755125159</v>
+      </c>
+      <c r="R7" t="n">
+        <v>57.02579755125159</v>
+      </c>
+      <c r="S7" t="n">
+        <v>57.02579755125159</v>
+      </c>
+      <c r="T7" t="n">
+        <v>57.02579755125159</v>
+      </c>
+      <c r="U7" t="n">
+        <v>57.02579755125159</v>
+      </c>
+      <c r="V7" t="n">
+        <v>57.02579755125159</v>
+      </c>
+      <c r="W7" t="n">
         <v>42.62534362416785</v>
       </c>
-      <c r="R7" t="n">
-        <v>42.62534362416785</v>
-      </c>
-      <c r="S7" t="n">
+      <c r="X7" t="n">
         <v>28.22488969708412</v>
       </c>
-      <c r="T7" t="n">
-        <v>13.82443577000038</v>
-      </c>
-      <c r="U7" t="n">
-        <v>13.82443577000038</v>
-      </c>
-      <c r="V7" t="n">
-        <v>13.82443577000038</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.140515951025032</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.140515951025032</v>
-      </c>
       <c r="Y7" t="n">
-        <v>1.140515951025032</v>
+        <v>28.22488969708412</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.44023890119601</v>
+        <v>175.6359230254671</v>
       </c>
       <c r="C8" t="n">
-        <v>30.44023890119601</v>
+        <v>175.6359230254671</v>
       </c>
       <c r="D8" t="n">
-        <v>30.44023890119601</v>
+        <v>175.6359230254671</v>
       </c>
       <c r="E8" t="n">
-        <v>30.44023890119601</v>
+        <v>175.6359230254671</v>
       </c>
       <c r="F8" t="n">
-        <v>23.49473815199254</v>
+        <v>91.16308586431518</v>
       </c>
       <c r="G8" t="n">
-        <v>9.928010093001104</v>
+        <v>6.690248703163234</v>
       </c>
       <c r="H8" t="n">
-        <v>9.928010093001104</v>
+        <v>6.690248703163234</v>
       </c>
       <c r="I8" t="n">
-        <v>9.928010093001104</v>
+        <v>6.690248703163234</v>
       </c>
       <c r="J8" t="n">
-        <v>9.928010093001104</v>
+        <v>89.48207640480825</v>
       </c>
       <c r="K8" t="n">
-        <v>114.6251682771188</v>
+        <v>89.48207640480825</v>
       </c>
       <c r="L8" t="n">
-        <v>173.6273978225883</v>
+        <v>115.5158721996408</v>
       </c>
       <c r="M8" t="n">
-        <v>270.9481841485612</v>
+        <v>176.1529236409187</v>
       </c>
       <c r="N8" t="n">
-        <v>374.4575309218709</v>
+        <v>242.3849543474349</v>
       </c>
       <c r="O8" t="n">
-        <v>458.8632106529506</v>
+        <v>291.5907215768741</v>
       </c>
       <c r="P8" t="n">
-        <v>496.4005046500552</v>
+        <v>334.5124351581617</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.4005046500552</v>
+        <v>334.5124351581617</v>
       </c>
       <c r="R8" t="n">
-        <v>463.7768641174171</v>
+        <v>288.4990500395464</v>
       </c>
       <c r="S8" t="n">
-        <v>463.7768641174171</v>
+        <v>288.4990500395464</v>
       </c>
       <c r="T8" t="n">
-        <v>463.7768641174171</v>
+        <v>260.1087601866191</v>
       </c>
       <c r="U8" t="n">
-        <v>338.4232013269992</v>
+        <v>260.1087601866191</v>
       </c>
       <c r="V8" t="n">
-        <v>281.147564482032</v>
+        <v>175.6359230254671</v>
       </c>
       <c r="W8" t="n">
-        <v>281.147564482032</v>
+        <v>175.6359230254671</v>
       </c>
       <c r="X8" t="n">
-        <v>281.147564482032</v>
+        <v>175.6359230254671</v>
       </c>
       <c r="Y8" t="n">
-        <v>155.793901691614</v>
+        <v>175.6359230254671</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>496.4005046500552</v>
+        <v>81.09392367470585</v>
       </c>
       <c r="C9" t="n">
-        <v>371.0468418596372</v>
+        <v>81.09392367470585</v>
       </c>
       <c r="D9" t="n">
-        <v>371.0468418596372</v>
+        <v>81.09392367470585</v>
       </c>
       <c r="E9" t="n">
-        <v>245.6931790692192</v>
+        <v>81.09392367470585</v>
       </c>
       <c r="F9" t="n">
-        <v>120.3395162788013</v>
+        <v>6.690248703163234</v>
       </c>
       <c r="G9" t="n">
-        <v>113.5276940620756</v>
+        <v>6.690248703163234</v>
       </c>
       <c r="H9" t="n">
-        <v>9.928010093001104</v>
+        <v>6.690248703163234</v>
       </c>
       <c r="I9" t="n">
-        <v>9.928010093001104</v>
+        <v>6.690248703163234</v>
       </c>
       <c r="J9" t="n">
-        <v>9.928010093001104</v>
+        <v>6.690248703163234</v>
       </c>
       <c r="K9" t="n">
-        <v>33.55773328242969</v>
+        <v>12.27000967043409</v>
       </c>
       <c r="L9" t="n">
-        <v>111.6533533547325</v>
+        <v>66.09522803135604</v>
       </c>
       <c r="M9" t="n">
-        <v>222.1441266189486</v>
+        <v>148.2635872592832</v>
       </c>
       <c r="N9" t="n">
-        <v>345.0032515198373</v>
+        <v>231.0554149609282</v>
       </c>
       <c r="O9" t="n">
-        <v>439.7172427767177</v>
+        <v>299.1741838839578</v>
       </c>
       <c r="P9" t="n">
-        <v>496.4005046500552</v>
+        <v>334.5124351581617</v>
       </c>
       <c r="Q9" t="n">
-        <v>496.4005046500552</v>
+        <v>334.5124351581617</v>
       </c>
       <c r="R9" t="n">
-        <v>496.4005046500552</v>
+        <v>334.5124351581617</v>
       </c>
       <c r="S9" t="n">
-        <v>496.4005046500552</v>
+        <v>334.5124351581617</v>
       </c>
       <c r="T9" t="n">
-        <v>496.4005046500552</v>
+        <v>334.5124351581617</v>
       </c>
       <c r="U9" t="n">
-        <v>496.4005046500552</v>
+        <v>250.0395979970097</v>
       </c>
       <c r="V9" t="n">
-        <v>496.4005046500552</v>
+        <v>250.0395979970097</v>
       </c>
       <c r="W9" t="n">
-        <v>496.4005046500552</v>
+        <v>250.0395979970097</v>
       </c>
       <c r="X9" t="n">
-        <v>496.4005046500552</v>
+        <v>165.5667608358578</v>
       </c>
       <c r="Y9" t="n">
-        <v>496.4005046500552</v>
+        <v>81.09392367470585</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>260.6353356738371</v>
+        <v>57.06774499038849</v>
       </c>
       <c r="C10" t="n">
-        <v>260.6353356738371</v>
+        <v>57.06774499038849</v>
       </c>
       <c r="D10" t="n">
-        <v>135.2816728834191</v>
+        <v>57.06774499038849</v>
       </c>
       <c r="E10" t="n">
-        <v>135.2816728834191</v>
+        <v>57.06774499038849</v>
       </c>
       <c r="F10" t="n">
-        <v>135.2816728834191</v>
+        <v>6.690248703163234</v>
       </c>
       <c r="G10" t="n">
-        <v>135.2816728834191</v>
+        <v>6.690248703163234</v>
       </c>
       <c r="H10" t="n">
-        <v>135.2816728834191</v>
+        <v>6.690248703163234</v>
       </c>
       <c r="I10" t="n">
-        <v>9.928010093001104</v>
+        <v>6.690248703163234</v>
       </c>
       <c r="J10" t="n">
-        <v>9.928010093001104</v>
+        <v>6.690248703163234</v>
       </c>
       <c r="K10" t="n">
-        <v>84.44852575282601</v>
+        <v>6.690248703163234</v>
       </c>
       <c r="L10" t="n">
-        <v>152.849757670764</v>
+        <v>89.48207640480825</v>
       </c>
       <c r="M10" t="n">
-        <v>275.7088825716527</v>
+        <v>172.2739041064533</v>
       </c>
       <c r="N10" t="n">
-        <v>398.5680074725414</v>
+        <v>255.0657318080983</v>
       </c>
       <c r="O10" t="n">
-        <v>398.5680074725414</v>
+        <v>334.5124351581617</v>
       </c>
       <c r="P10" t="n">
-        <v>496.4005046500552</v>
+        <v>334.5124351581617</v>
       </c>
       <c r="Q10" t="n">
-        <v>480.3807819994876</v>
+        <v>310.4862564738443</v>
       </c>
       <c r="R10" t="n">
-        <v>480.3807819994876</v>
+        <v>310.4862564738443</v>
       </c>
       <c r="S10" t="n">
-        <v>480.3807819994876</v>
+        <v>310.4862564738443</v>
       </c>
       <c r="T10" t="n">
-        <v>355.0271192090697</v>
+        <v>226.0134193126924</v>
       </c>
       <c r="U10" t="n">
-        <v>355.0271192090697</v>
+        <v>141.5405821515404</v>
       </c>
       <c r="V10" t="n">
-        <v>355.0271192090697</v>
+        <v>57.06774499038849</v>
       </c>
       <c r="W10" t="n">
-        <v>260.6353356738371</v>
+        <v>57.06774499038849</v>
       </c>
       <c r="X10" t="n">
-        <v>260.6353356738371</v>
+        <v>57.06774499038849</v>
       </c>
       <c r="Y10" t="n">
-        <v>260.6353356738371</v>
+        <v>57.06774499038849</v>
       </c>
     </row>
     <row r="11">
@@ -5039,25 +5041,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J11" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K11" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951463</v>
       </c>
       <c r="L11" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M11" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N11" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O11" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P11" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q11" t="n">
         <v>4142.907144767228</v>
@@ -5066,25 +5068,25 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S11" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T11" t="n">
         <v>4017.391409283565</v>
       </c>
       <c r="U11" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V11" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W11" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X11" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y11" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="12">
@@ -5127,10 +5129,10 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M12" t="n">
-        <v>1453.289737812102</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N12" t="n">
-        <v>1453.289737812102</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="O12" t="n">
         <v>1959.694692760353</v>
@@ -5173,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>872.8624197502108</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C13" t="n">
-        <v>735.8557341477725</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D13" t="n">
-        <v>617.6685920609054</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E13" t="n">
-        <v>501.6849958039809</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F13" t="n">
-        <v>386.7245456315392</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G13" t="n">
         <v>251.2943450749442</v>
       </c>
       <c r="H13" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I13" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J13" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K13" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L13" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M13" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N13" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O13" t="n">
         <v>2087.878830313936</v>
@@ -5221,28 +5223,28 @@
         <v>2529.521427597206</v>
       </c>
       <c r="R13" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S13" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T13" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U13" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V13" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W13" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y13" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C14" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D14" t="n">
         <v>1458.093420216582</v>
@@ -5264,7 +5266,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F14" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G14" t="n">
         <v>342.8002736162839</v>
@@ -5276,16 +5278,16 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L14" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N14" t="n">
         <v>2681.771598889755</v>
@@ -5303,7 +5305,7 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S14" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T14" t="n">
         <v>4017.391409283565</v>
@@ -5321,7 +5323,7 @@
         <v>2834.342818501803</v>
       </c>
       <c r="Y14" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="15">
@@ -5364,10 +5366,10 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M15" t="n">
-        <v>1453.289737812102</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N15" t="n">
-        <v>1453.289737812102</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="O15" t="n">
         <v>1959.694692760353</v>
@@ -5434,28 +5436,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J16" t="n">
-        <v>185.1742787042798</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K16" t="n">
-        <v>459.5287020443625</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L16" t="n">
-        <v>857.3827676902799</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M16" t="n">
-        <v>1285.552079040895</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N16" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O16" t="n">
-        <v>2087.878830313937</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P16" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q16" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R16" t="n">
         <v>2487.049233352543</v>
@@ -5470,10 +5472,10 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W16" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X16" t="n">
         <v>1211.444469073043</v>
@@ -5504,7 +5506,7 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
         <v>84.98040897511622</v>
@@ -5513,10 +5515,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951447</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
@@ -5528,10 +5530,10 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q17" t="n">
         <v>4142.907144767228</v>
@@ -5543,7 +5545,7 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U17" t="n">
         <v>3795.851627400162</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2634.934250816501</v>
+        <v>941.5579923844783</v>
       </c>
       <c r="C18" t="n">
-        <v>2460.481221535374</v>
+        <v>767.1049631033513</v>
       </c>
       <c r="D18" t="n">
-        <v>2311.546811874123</v>
+        <v>618.1705534421001</v>
       </c>
       <c r="E18" t="n">
-        <v>2152.309356868667</v>
+        <v>458.9330984366445</v>
       </c>
       <c r="F18" t="n">
-        <v>2005.774798895552</v>
+        <v>312.3985404635295</v>
       </c>
       <c r="G18" t="n">
-        <v>1869.820993208503</v>
+        <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>1783.272021853795</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>1778.356667407139</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
-        <v>1909.933769415609</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>1909.933769415609</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>2019.892183707434</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M18" t="n">
-        <v>2568.810648317723</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>3146.665996244125</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="O18" t="n">
-        <v>3653.070951192376</v>
+        <v>2028.720609486317</v>
       </c>
       <c r="P18" t="n">
-        <v>4040.172506744531</v>
+        <v>2415.822165038473</v>
       </c>
       <c r="Q18" t="n">
-        <v>4249.020448755811</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R18" t="n">
-        <v>4249.020448755811</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="S18" t="n">
-        <v>4127.185027706349</v>
+        <v>2433.808769274326</v>
       </c>
       <c r="T18" t="n">
-        <v>3936.191771364141</v>
+        <v>2242.815512932119</v>
       </c>
       <c r="U18" t="n">
-        <v>3708.150851767</v>
+        <v>2014.774593334977</v>
       </c>
       <c r="V18" t="n">
-        <v>3472.998743535257</v>
+        <v>1779.622485103235</v>
       </c>
       <c r="W18" t="n">
-        <v>3218.761386807056</v>
+        <v>1525.385128375033</v>
       </c>
       <c r="X18" t="n">
-        <v>3010.909886601523</v>
+        <v>1317.5336281695</v>
       </c>
       <c r="Y18" t="n">
-        <v>2803.149587836569</v>
+        <v>1109.773329404546</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C19" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511623</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
@@ -5686,10 +5688,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
         <v>2529.521427597205</v>
@@ -5704,7 +5706,7 @@
         <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V19" t="n">
         <v>1664.992195357083</v>
@@ -5713,7 +5715,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y19" t="n">
         <v>1022.581387254981</v>
@@ -5738,37 +5740,37 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162835</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511584</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I20" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951443</v>
+        <v>766.6831886951463</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O20" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q20" t="n">
         <v>4142.907144767228</v>
@@ -5838,19 +5840,19 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>1453.289737812102</v>
+        <v>1357.074366803431</v>
       </c>
       <c r="N21" t="n">
-        <v>1453.289737812102</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O21" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P21" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.862419750209</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477707</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609036</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039791</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315374</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749432</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897919</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
         <v>459.5287020443611</v>
@@ -5929,31 +5931,31 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796667</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511606</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
         <v>337.4933016076836</v>
@@ -6008,31 +6010,31 @@
         <v>3813.656640612703</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6062,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>519.5985603334502</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="L24" t="n">
-        <v>973.3971899277776</v>
+        <v>670.3561405779133</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.315654538067</v>
+        <v>1219.274605188202</v>
       </c>
       <c r="N24" t="n">
-        <v>2100.171002464469</v>
+        <v>1797.129953114605</v>
       </c>
       <c r="O24" t="n">
-        <v>2555.644190323788</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P24" t="n">
-        <v>2555.644190323788</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q24" t="n">
         <v>2555.644190323788</v>
@@ -6136,22 +6138,22 @@
         <v>386.7245456315385</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K25" t="n">
         <v>459.5287020443611</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040893</v>
@@ -6181,13 +6183,13 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W25" t="n">
         <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
         <v>1022.581387254981</v>
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2334.922984192268</v>
+        <v>2243.556761659847</v>
       </c>
       <c r="C26" t="n">
-        <v>1965.960467251856</v>
+        <v>1887.099677412421</v>
       </c>
       <c r="D26" t="n">
-        <v>1607.694768645106</v>
+        <v>1541.339411498655</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.906516046862</v>
+        <v>1168.056591593396</v>
       </c>
       <c r="F26" t="n">
-        <v>810.9206112572542</v>
+        <v>769.5761194967731</v>
       </c>
       <c r="G26" t="n">
-        <v>396.6131300684019</v>
+        <v>367.7740710009058</v>
       </c>
       <c r="H26" t="n">
-        <v>106.8637681017653</v>
+        <v>90.53014172725447</v>
       </c>
       <c r="I26" t="n">
-        <v>94.35833540878045</v>
+        <v>90.53014172725447</v>
       </c>
       <c r="J26" t="n">
-        <v>346.8712280413478</v>
+        <v>510.4486833801749</v>
       </c>
       <c r="K26" t="n">
-        <v>776.061115128809</v>
+        <v>939.6385704676361</v>
       </c>
       <c r="L26" t="n">
-        <v>1345.410883484627</v>
+        <v>1508.988338823454</v>
       </c>
       <c r="M26" t="n">
-        <v>2010.591640180402</v>
+        <v>2174.169095519229</v>
       </c>
       <c r="N26" t="n">
-        <v>2691.149525323419</v>
+        <v>2854.726980662246</v>
       </c>
       <c r="O26" t="n">
-        <v>3320.445776666951</v>
+        <v>3484.023232005778</v>
       </c>
       <c r="P26" t="n">
-        <v>4072.361121542609</v>
+        <v>3986.612022385194</v>
       </c>
       <c r="Q26" t="n">
-        <v>4611.803466450438</v>
+        <v>4420.39378237414</v>
       </c>
       <c r="R26" t="n">
-        <v>4717.916770439022</v>
+        <v>4526.507086362723</v>
       </c>
       <c r="S26" t="n">
-        <v>4625.057832282288</v>
+        <v>4446.153580898975</v>
       </c>
       <c r="T26" t="n">
-        <v>4422.428736315838</v>
+        <v>4256.029917625509</v>
       </c>
       <c r="U26" t="n">
-        <v>4168.959457106967</v>
+        <v>4015.066071109622</v>
       </c>
       <c r="V26" t="n">
-        <v>3837.896569763396</v>
+        <v>3696.508616459036</v>
       </c>
       <c r="W26" t="n">
-        <v>3485.127914493281</v>
+        <v>3356.245393881906</v>
       </c>
       <c r="X26" t="n">
-        <v>3111.662156232202</v>
+        <v>2995.285068313811</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.52282425639</v>
+        <v>2617.651169030984</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>950.9359188181426</v>
+        <v>947.1077251366165</v>
       </c>
       <c r="C27" t="n">
-        <v>776.4828895370156</v>
+        <v>772.6546958554895</v>
       </c>
       <c r="D27" t="n">
-        <v>627.5484798757643</v>
+        <v>623.7202861942383</v>
       </c>
       <c r="E27" t="n">
-        <v>468.3110248703088</v>
+        <v>464.4828311887828</v>
       </c>
       <c r="F27" t="n">
-        <v>321.7764668971937</v>
+        <v>317.9482732156678</v>
       </c>
       <c r="G27" t="n">
-        <v>185.8226612101445</v>
+        <v>181.9944675286186</v>
       </c>
       <c r="H27" t="n">
-        <v>99.273689855436</v>
+        <v>95.44549617391004</v>
       </c>
       <c r="I27" t="n">
-        <v>94.35833540878045</v>
+        <v>90.53014172725447</v>
       </c>
       <c r="J27" t="n">
-        <v>94.35833540878045</v>
+        <v>222.1072437357241</v>
       </c>
       <c r="K27" t="n">
-        <v>397.3993847586448</v>
+        <v>525.1482930855884</v>
       </c>
       <c r="L27" t="n">
-        <v>851.1980143529722</v>
+        <v>978.9469226799158</v>
       </c>
       <c r="M27" t="n">
-        <v>1400.116478963261</v>
+        <v>978.9469226799158</v>
       </c>
       <c r="N27" t="n">
-        <v>1977.971826889664</v>
+        <v>1556.802270606318</v>
       </c>
       <c r="O27" t="n">
-        <v>2484.376781837914</v>
+        <v>2063.207225554568</v>
       </c>
       <c r="P27" t="n">
-        <v>2484.376781837914</v>
+        <v>2450.308781106724</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.022116757453</v>
+        <v>2536.428945045407</v>
       </c>
       <c r="R27" t="n">
-        <v>2565.022116757453</v>
+        <v>2561.193923075927</v>
       </c>
       <c r="S27" t="n">
-        <v>2443.18669570799</v>
+        <v>2439.358502026464</v>
       </c>
       <c r="T27" t="n">
-        <v>2252.193439365783</v>
+        <v>2248.365245684257</v>
       </c>
       <c r="U27" t="n">
-        <v>2024.152519768641</v>
+        <v>2020.324326087115</v>
       </c>
       <c r="V27" t="n">
-        <v>1789.000411536899</v>
+        <v>1785.172217855373</v>
       </c>
       <c r="W27" t="n">
-        <v>1534.763054808697</v>
+        <v>1530.934861127171</v>
       </c>
       <c r="X27" t="n">
-        <v>1326.911554603164</v>
+        <v>1323.083360921638</v>
       </c>
       <c r="Y27" t="n">
-        <v>1119.151255838211</v>
+        <v>1115.323062156685</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>573.8205876293699</v>
+        <v>759.0904093106274</v>
       </c>
       <c r="C28" t="n">
-        <v>404.884404701463</v>
+        <v>602.6596590757053</v>
       </c>
       <c r="D28" t="n">
-        <v>404.884404701463</v>
+        <v>465.0484523563545</v>
       </c>
       <c r="E28" t="n">
-        <v>404.884404701463</v>
+        <v>465.0484523563545</v>
       </c>
       <c r="F28" t="n">
-        <v>404.884404701463</v>
+        <v>330.6639375514289</v>
       </c>
       <c r="G28" t="n">
-        <v>237.5247068194003</v>
+        <v>175.809672362351</v>
       </c>
       <c r="H28" t="n">
-        <v>94.35833540878045</v>
+        <v>90.53014172725447</v>
       </c>
       <c r="I28" t="n">
-        <v>94.35833540878045</v>
+        <v>90.53014172725447</v>
       </c>
       <c r="J28" t="n">
-        <v>163.2581048092509</v>
+        <v>171.6864857101194</v>
       </c>
       <c r="K28" t="n">
-        <v>406.3184278206418</v>
+        <v>427.0033833039048</v>
       </c>
       <c r="L28" t="n">
-        <v>772.8783931378675</v>
+        <v>805.8199232035249</v>
       </c>
       <c r="M28" t="n">
-        <v>1169.75360415979</v>
+        <v>1214.951708807842</v>
       </c>
       <c r="N28" t="n">
-        <v>1562.626626145179</v>
+        <v>1620.081305375625</v>
       </c>
       <c r="O28" t="n">
-        <v>1909.492154775449</v>
+        <v>1979.20340858829</v>
       </c>
       <c r="P28" t="n">
-        <v>2182.77485516151</v>
+        <v>2264.742683556746</v>
       </c>
       <c r="Q28" t="n">
-        <v>2288.546551401335</v>
+        <v>2382.770954378965</v>
       </c>
       <c r="R28" t="n">
-        <v>2288.546551401335</v>
+        <v>2320.874695501819</v>
       </c>
       <c r="S28" t="n">
-        <v>2102.84063968952</v>
+        <v>2147.674216482988</v>
       </c>
       <c r="T28" t="n">
-        <v>1882.540162525524</v>
+        <v>2147.674216482988</v>
       </c>
       <c r="U28" t="n">
-        <v>1593.456012309888</v>
+        <v>1871.095498960338</v>
       </c>
       <c r="V28" t="n">
-        <v>1338.771524104001</v>
+        <v>1628.916443447436</v>
       </c>
       <c r="W28" t="n">
-        <v>1049.354354067041</v>
+        <v>1352.00470610346</v>
       </c>
       <c r="X28" t="n">
-        <v>821.3648031690234</v>
+        <v>1136.520587898427</v>
       </c>
       <c r="Y28" t="n">
-        <v>600.5722240254933</v>
+        <v>928.2334414478822</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2320.831333497312</v>
+        <v>2243.556761659847</v>
       </c>
       <c r="C29" t="n">
-        <v>1953.797562043082</v>
+        <v>1887.099677412421</v>
       </c>
       <c r="D29" t="n">
-        <v>1597.460608922512</v>
+        <v>1541.339411498655</v>
       </c>
       <c r="E29" t="n">
-        <v>1213.601101810449</v>
+        <v>1168.056591593396</v>
       </c>
       <c r="F29" t="n">
-        <v>804.5439425070226</v>
+        <v>769.5761194967731</v>
       </c>
       <c r="G29" t="n">
-        <v>392.165206804351</v>
+        <v>367.7740710009057</v>
       </c>
       <c r="H29" t="n">
-        <v>104.3445903238959</v>
+        <v>90.53014172725443</v>
       </c>
       <c r="I29" t="n">
-        <v>93.7679031170923</v>
+        <v>90.53014172725443</v>
       </c>
       <c r="J29" t="n">
-        <v>346.2807957496597</v>
+        <v>343.0430343598218</v>
       </c>
       <c r="K29" t="n">
-        <v>775.4706828371209</v>
+        <v>772.232921447283</v>
       </c>
       <c r="L29" t="n">
-        <v>1344.820451192939</v>
+        <v>1341.582689803101</v>
       </c>
       <c r="M29" t="n">
-        <v>2010.001207888714</v>
+        <v>2006.763446498876</v>
       </c>
       <c r="N29" t="n">
-        <v>2690.559093031731</v>
+        <v>2687.321331641893</v>
       </c>
       <c r="O29" t="n">
-        <v>3319.855344375263</v>
+        <v>3316.617582985425</v>
       </c>
       <c r="P29" t="n">
-        <v>4042.839506958202</v>
+        <v>3880.951437466308</v>
       </c>
       <c r="Q29" t="n">
-        <v>4582.281851866032</v>
+        <v>4420.393782374138</v>
       </c>
       <c r="R29" t="n">
-        <v>4688.395155854615</v>
+        <v>4526.507086362722</v>
       </c>
       <c r="S29" t="n">
-        <v>4597.464963184063</v>
+        <v>4446.153580898974</v>
       </c>
       <c r="T29" t="n">
-        <v>4396.764612703793</v>
+        <v>4256.029917625508</v>
       </c>
       <c r="U29" t="n">
-        <v>4145.224078981104</v>
+        <v>4015.066071109622</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.089937123715</v>
+        <v>3696.508616459036</v>
       </c>
       <c r="W29" t="n">
-        <v>3465.250027339782</v>
+        <v>3356.245393881906</v>
       </c>
       <c r="X29" t="n">
-        <v>3093.713014564883</v>
+        <v>2995.285068313811</v>
       </c>
       <c r="Y29" t="n">
-        <v>2705.502428075253</v>
+        <v>2617.651169030984</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>950.3454865264545</v>
+        <v>947.1077251366165</v>
       </c>
       <c r="C30" t="n">
-        <v>775.8924572453275</v>
+        <v>772.6546958554895</v>
       </c>
       <c r="D30" t="n">
-        <v>626.9580475840762</v>
+        <v>623.7202861942383</v>
       </c>
       <c r="E30" t="n">
-        <v>467.7205925786207</v>
+        <v>464.4828311887827</v>
       </c>
       <c r="F30" t="n">
-        <v>321.1860346055056</v>
+        <v>317.9482732156677</v>
       </c>
       <c r="G30" t="n">
-        <v>185.2322289184564</v>
+        <v>181.9944675286185</v>
       </c>
       <c r="H30" t="n">
-        <v>98.68325756374787</v>
+        <v>95.44549617390999</v>
       </c>
       <c r="I30" t="n">
-        <v>93.7679031170923</v>
+        <v>90.53014172725443</v>
       </c>
       <c r="J30" t="n">
-        <v>225.345005125562</v>
+        <v>222.1072437357241</v>
       </c>
       <c r="K30" t="n">
-        <v>528.3860544754264</v>
+        <v>222.1072437357241</v>
       </c>
       <c r="L30" t="n">
-        <v>982.1846840697538</v>
+        <v>307.3006799970299</v>
       </c>
       <c r="M30" t="n">
-        <v>1531.103148680043</v>
+        <v>856.219144607319</v>
       </c>
       <c r="N30" t="n">
-        <v>2108.958496606445</v>
+        <v>1434.074492533721</v>
       </c>
       <c r="O30" t="n">
-        <v>2564.431684465765</v>
+        <v>1940.479447481971</v>
       </c>
       <c r="P30" t="n">
-        <v>2564.431684465765</v>
+        <v>2327.581003034127</v>
       </c>
       <c r="Q30" t="n">
-        <v>2564.431684465765</v>
+        <v>2536.428945045407</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.431684465765</v>
+        <v>2561.193923075927</v>
       </c>
       <c r="S30" t="n">
-        <v>2442.596263416302</v>
+        <v>2439.358502026464</v>
       </c>
       <c r="T30" t="n">
-        <v>2251.603007074095</v>
+        <v>2248.365245684257</v>
       </c>
       <c r="U30" t="n">
-        <v>2023.562087476953</v>
+        <v>2020.324326087115</v>
       </c>
       <c r="V30" t="n">
-        <v>1788.409979245211</v>
+        <v>1785.172217855373</v>
       </c>
       <c r="W30" t="n">
-        <v>1534.172622517009</v>
+        <v>1530.934861127171</v>
       </c>
       <c r="X30" t="n">
-        <v>1326.321122311476</v>
+        <v>1323.083360921638</v>
       </c>
       <c r="Y30" t="n">
-        <v>1118.560823546522</v>
+        <v>1115.323062156685</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>376.4132523171145</v>
+        <v>2888.324561219157</v>
       </c>
       <c r="C31" t="n">
-        <v>259.1988555129739</v>
+        <v>2731.893810984235</v>
       </c>
       <c r="D31" t="n">
-        <v>259.1988555129739</v>
+        <v>2594.282604264884</v>
       </c>
       <c r="E31" t="n">
-        <v>259.1988555129739</v>
+        <v>2594.282604264884</v>
       </c>
       <c r="F31" t="n">
-        <v>259.1988555129739</v>
+        <v>2594.282604264884</v>
       </c>
       <c r="G31" t="n">
-        <v>93.7679031170923</v>
+        <v>2439.428339075806</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7679031170923</v>
+        <v>2308.767400358171</v>
       </c>
       <c r="I31" t="n">
-        <v>93.7679031170923</v>
+        <v>2234.266273711011</v>
       </c>
       <c r="J31" t="n">
-        <v>164.558035968569</v>
+        <v>2315.422617693876</v>
       </c>
       <c r="K31" t="n">
-        <v>409.5087224309661</v>
+        <v>2570.739515287662</v>
       </c>
       <c r="L31" t="n">
-        <v>777.9590511991979</v>
+        <v>2949.556055187282</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.724625672127</v>
+        <v>3358.687840791599</v>
       </c>
       <c r="N31" t="n">
-        <v>1571.488011108521</v>
+        <v>3763.817437359382</v>
       </c>
       <c r="O31" t="n">
-        <v>1920.243903189798</v>
+        <v>4122.939540572047</v>
       </c>
       <c r="P31" t="n">
-        <v>2195.416967026865</v>
+        <v>4408.478815540502</v>
       </c>
       <c r="Q31" t="n">
-        <v>2303.079026717696</v>
+        <v>4526.507086362722</v>
       </c>
       <c r="R31" t="n">
-        <v>2230.606080633746</v>
+        <v>4526.507086362722</v>
       </c>
       <c r="S31" t="n">
-        <v>2046.828914408112</v>
+        <v>4353.306607343891</v>
       </c>
       <c r="T31" t="n">
-        <v>1828.457182730298</v>
+        <v>4145.51156287288</v>
       </c>
       <c r="U31" t="n">
-        <v>1541.301778000843</v>
+        <v>4000.329650868867</v>
       </c>
       <c r="V31" t="n">
-        <v>1288.546035281137</v>
+        <v>3758.150595355965</v>
       </c>
       <c r="W31" t="n">
-        <v>1001.057610730358</v>
+        <v>3481.23885801199</v>
       </c>
       <c r="X31" t="n">
-        <v>774.9968053185219</v>
+        <v>3265.754739806957</v>
       </c>
       <c r="Y31" t="n">
-        <v>556.132971661173</v>
+        <v>3057.467593356412</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6688,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G32" t="n">
         <v>342.8002736162838</v>
@@ -6701,25 +6703,25 @@
         <v>337.4933016076836</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L32" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R32" t="n">
         <v>4249.020448755811</v>
@@ -6777,25 +6779,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>326.5159252754111</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>875.4343898857002</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
         <v>2555.644190323788</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502099</v>
+        <v>2592.361440908817</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477717</v>
+        <v>2455.354755306379</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609046</v>
+        <v>2337.167613219512</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039802</v>
+        <v>2221.184016962587</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315385</v>
+        <v>2106.223566790144</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749444</v>
+        <v>1970.79336623355</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897931</v>
+        <v>1859.556492148399</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511622</v>
+        <v>1804.479430133722</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042784</v>
+        <v>1904.673299862885</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443612</v>
+        <v>2179.027723202967</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902787</v>
+        <v>2576.881788848885</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040893</v>
+        <v>3005.0511001995</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354973</v>
+        <v>3429.218222513579</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313935</v>
+        <v>3807.377851472542</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028688</v>
+        <v>4111.954652187294</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597205</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352542</v>
+        <v>4206.548254511149</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966195</v>
+        <v>4052.771840124802</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127668</v>
+        <v>3864.400860286275</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>3607.246207396108</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357084</v>
+        <v>3384.49121651569</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645592</v>
+        <v>3127.003543804198</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073043</v>
+        <v>2930.943490231649</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254981</v>
+        <v>2742.080408413588</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943804</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796655</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162819</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511424</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951447</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7010,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>841.820087919308</v>
+        <v>879.6062951712937</v>
       </c>
       <c r="M36" t="n">
-        <v>1390.738552529597</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="N36" t="n">
-        <v>1453.289737812102</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O36" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P36" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7072,28 +7074,28 @@
         <v>872.8624197502099</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039802</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749443</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
         <v>459.5287020443611</v>
@@ -7123,7 +7125,7 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U37" t="n">
         <v>1887.747186237501</v>
@@ -7163,10 +7165,10 @@
         <v>725.1782574796673</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511606</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I38" t="n">
         <v>84.98040897511622</v>
@@ -7175,22 +7177,22 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
         <v>4142.907144767228</v>
@@ -7254,25 +7256,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>519.5985603334502</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="L39" t="n">
-        <v>973.3971899277776</v>
+        <v>670.3561405779133</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.315654538067</v>
+        <v>875.4343898857002</v>
       </c>
       <c r="N39" t="n">
-        <v>2100.171002464469</v>
+        <v>1453.289737812102</v>
       </c>
       <c r="O39" t="n">
-        <v>2100.171002464469</v>
+        <v>1959.694692760353</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.031270281989</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502099</v>
+        <v>2592.361440908817</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477717</v>
+        <v>2455.354755306379</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609046</v>
+        <v>2337.167613219511</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039802</v>
+        <v>2221.184016962586</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315385</v>
+        <v>2106.223566790145</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749443</v>
+        <v>1970.793366233551</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897931</v>
+        <v>1859.556492148399</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511622</v>
+        <v>1804.479430133723</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>1904.673299862885</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443611</v>
+        <v>2179.027723202968</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902786</v>
+        <v>2576.881788848885</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040893</v>
+        <v>3005.0511001995</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354973</v>
+        <v>3429.218222513579</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313935</v>
+        <v>3807.377851472542</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028688</v>
+        <v>4111.954652187294</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597205</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>4206.548254511149</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>4052.771840124802</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127668</v>
+        <v>3864.400860286275</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237501</v>
+        <v>3607.246207396108</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357083</v>
+        <v>3384.49121651569</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645591</v>
+        <v>3127.003543804198</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073042</v>
+        <v>2930.943490231649</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254981</v>
+        <v>2742.080408413588</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D41" t="n">
         <v>1458.093420216582</v>
@@ -7397,55 +7399,55 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951447</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W41" t="n">
         <v>3175.879079437414</v>
@@ -7482,25 +7484,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J42" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>519.5985603334502</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="L42" t="n">
-        <v>973.3971899277776</v>
+        <v>301.7509472448914</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.315654538067</v>
+        <v>850.6694118551806</v>
       </c>
       <c r="N42" t="n">
-        <v>1522.315654538067</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O42" t="n">
         <v>1934.929714729833</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502118</v>
       </c>
       <c r="C43" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315382</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357085</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645593</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254983</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2133.035114029894</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1794.07334892877</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D44" t="n">
-        <v>1465.808402161307</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
-        <v>1110.02090140235</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>729.0357484520298</v>
+        <v>725.1782574796672</v>
       </c>
       <c r="G44" t="n">
-        <v>344.729019102465</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H44" t="n">
         <v>84.98040897511622</v>
@@ -7646,52 +7648,52 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
         <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4213.164699244902</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4040.536355117739</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3817.067827748155</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V44" t="n">
-        <v>3516.005692243872</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W44" t="n">
-        <v>3193.237788813045</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X44" t="n">
-        <v>2849.772782391253</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y44" t="n">
-        <v>2489.634202254728</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7737,7 +7739,7 @@
         <v>1068.517024943739</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781583</v>
+        <v>1646.372372870142</v>
       </c>
       <c r="O45" t="n">
         <v>1934.929714729833</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>840.38080276653</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C46" t="n">
-        <v>701.4453716779105</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D46" t="n">
-        <v>627.3123194918105</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E46" t="n">
-        <v>509.3999777487049</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F46" t="n">
-        <v>392.510782090082</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G46" t="n">
-        <v>255.1518360473067</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H46" t="n">
-        <v>141.9862164759743</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I46" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>183.2839152532723</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>455.7479751423489</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L46" t="n">
-        <v>851.7116773372602</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M46" t="n">
-        <v>1277.990625236869</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N46" t="n">
-        <v>1700.267384099942</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O46" t="n">
-        <v>2076.536649607899</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P46" t="n">
-        <v>2379.223086871645</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q46" t="n">
-        <v>2514.398519989155</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R46" t="n">
-        <v>2469.997580258312</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S46" t="n">
-        <v>2314.292420385784</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T46" t="n">
-        <v>2123.992695061075</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U46" t="n">
-        <v>1864.909296684727</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V46" t="n">
-        <v>1640.225560318128</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W46" t="n">
-        <v>1380.809142120455</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X46" t="n">
-        <v>1182.820343061725</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
-        <v>992.0285157574822</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>113.2260899924004</v>
+        <v>95.62960811505427</v>
       </c>
       <c r="K2" t="n">
-        <v>108.1401193955261</v>
+        <v>92.07296461459265</v>
       </c>
       <c r="L2" t="n">
-        <v>96.8828735864094</v>
+        <v>90.63057855637895</v>
       </c>
       <c r="M2" t="n">
-        <v>82.40975915624804</v>
+        <v>67.88898424204356</v>
       </c>
       <c r="N2" t="n">
-        <v>72.37783081028323</v>
+        <v>49.83995283538937</v>
       </c>
       <c r="O2" t="n">
-        <v>81.81429409651335</v>
+        <v>74.78886441161023</v>
       </c>
       <c r="P2" t="n">
-        <v>111.5521487296206</v>
+        <v>86.51251157302005</v>
       </c>
       <c r="Q2" t="n">
-        <v>134.1427797389952</v>
+        <v>127.8830826738399</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>89.22532974586549</v>
+        <v>75.9642656841099</v>
       </c>
       <c r="K3" t="n">
-        <v>61.8037753651613</v>
+        <v>50.89076206545072</v>
       </c>
       <c r="L3" t="n">
-        <v>42.91058313853786</v>
+        <v>26.61421083609809</v>
       </c>
       <c r="M3" t="n">
-        <v>22.82241628062033</v>
+        <v>5.698675119627296</v>
       </c>
       <c r="N3" t="n">
-        <v>15.74831668747748</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>30.56063215098905</v>
+        <v>28.73760106865498</v>
       </c>
       <c r="P3" t="n">
-        <v>44.05595131477706</v>
+        <v>45.40720003325787</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.7497132008462</v>
+        <v>85.50333196293273</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>83.14764007888051</v>
+        <v>76.564953598583</v>
       </c>
       <c r="L4" t="n">
-        <v>83.06852184525614</v>
+        <v>81.4493349791267</v>
       </c>
       <c r="M4" t="n">
-        <v>83.91913385563848</v>
+        <v>82.4180615252321</v>
       </c>
       <c r="N4" t="n">
-        <v>74.15032656556536</v>
+        <v>72.86043588280545</v>
       </c>
       <c r="O4" t="n">
-        <v>89.25518434441156</v>
+        <v>88.90498787997524</v>
       </c>
       <c r="P4" t="n">
-        <v>89.98182383855479</v>
+        <v>83.12923691102129</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8216,16 +8218,16 @@
         <v>92.24350758037767</v>
       </c>
       <c r="K5" t="n">
-        <v>101.2545270569381</v>
+        <v>86.99807766912519</v>
       </c>
       <c r="L5" t="n">
         <v>70.65430131759652</v>
       </c>
       <c r="M5" t="n">
-        <v>60.30762432134627</v>
+        <v>46.62719309061671</v>
       </c>
       <c r="N5" t="n">
-        <v>42.72125731818082</v>
+        <v>56.40168854891037</v>
       </c>
       <c r="O5" t="n">
         <v>68.06688209714918</v>
@@ -8234,7 +8236,7 @@
         <v>95.03190457399765</v>
       </c>
       <c r="Q5" t="n">
-        <v>109.3183428650893</v>
+        <v>123.5747922529022</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8298,7 +8300,7 @@
         <v>47.44383512128914</v>
       </c>
       <c r="L6" t="n">
-        <v>17.00364564221431</v>
+        <v>31.26009503002721</v>
       </c>
       <c r="M6" t="n">
         <v>0.2900603611131771</v>
@@ -8313,7 +8315,7 @@
         <v>40.75501311459954</v>
       </c>
       <c r="Q6" t="n">
-        <v>82.77852109341924</v>
+        <v>68.52207170560635</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,13 +8382,13 @@
         <v>78.78870974944586</v>
       </c>
       <c r="M7" t="n">
-        <v>65.35635587990504</v>
+        <v>79.61280526771793</v>
       </c>
       <c r="N7" t="n">
         <v>70.12188234903893</v>
       </c>
       <c r="O7" t="n">
-        <v>86.37549044380806</v>
+        <v>72.11904105599517</v>
       </c>
       <c r="P7" t="n">
         <v>95.22126425800784</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>22.18968109234825</v>
+        <v>123.7283378087157</v>
       </c>
       <c r="K8" t="n">
-        <v>87.76025658119447</v>
+        <v>8.84881985643807</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8468,10 +8470,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>35.78457628845993</v>
       </c>
       <c r="Q8" t="n">
-        <v>20.18565867051581</v>
+        <v>42.97406712935185</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>32.2239482632534</v>
+        <v>42.8913479089347</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.14943128610787</v>
+        <v>26.5621326132472</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>42.46816048223506</v>
       </c>
       <c r="L10" t="n">
-        <v>79.15570536576013</v>
+        <v>107.7648564640131</v>
       </c>
       <c r="M10" t="n">
-        <v>131.4195356771726</v>
+        <v>105.7857300267102</v>
       </c>
       <c r="N10" t="n">
-        <v>123.3086016241058</v>
+        <v>97.32197646391597</v>
       </c>
       <c r="O10" t="n">
-        <v>19.7871706107798</v>
+        <v>113.4159701510487</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>47.63442191728946</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9656,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9890,10 +9892,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>251.8450045416579</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>105.587127105477</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10127,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>222.6215880843667</v>
+        <v>62.36875161764391</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -22559,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.54660976601853</v>
+        <v>0.03989573377724764</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.3478601497752</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>134.0535842805142</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>44.92759400171308</v>
       </c>
       <c r="I28" t="n">
-        <v>86.13649374674407</v>
+        <v>73.75611538068907</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>73.65767465442973</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>205.717094026301</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>49.29511023120924</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>146.706014986893</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>144.5245046152498</v>
+        <v>134.0535842805141</v>
       </c>
       <c r="F31" t="n">
-        <v>143.5115899916119</v>
+        <v>133.0406696568762</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>139.8252496651943</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>84.22703571542468</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>61.27729628837464</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>130.0828374634515</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>26.73241243847129</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>45.52300703307874</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>651196.8164366491</v>
+        <v>647165.9838503608</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>628555.0377483678</v>
+        <v>630508.8102404074</v>
       </c>
     </row>
     <row r="5">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>623687.0151544046</v>
+        <v>623721.0529898318</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>623692.2648984999</v>
+        <v>623721.0529898317</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>621905.2037592129</v>
+        <v>624320.542908385</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>820441.0597269087</v>
+        <v>821038.5941638744</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
+        <v>821041.7698642828</v>
+      </c>
+      <c r="E2" t="n">
+        <v>821041.7698642845</v>
+      </c>
+      <c r="F2" t="n">
+        <v>821041.7698642839</v>
+      </c>
+      <c r="G2" t="n">
+        <v>821041.7698642843</v>
+      </c>
+      <c r="H2" t="n">
         <v>821041.7698642836</v>
       </c>
-      <c r="E2" t="n">
-        <v>821041.7698642833</v>
-      </c>
-      <c r="F2" t="n">
-        <v>821041.7698642835</v>
-      </c>
-      <c r="G2" t="n">
-        <v>821041.7698642842</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>821041.7698642837</v>
+      </c>
+      <c r="J2" t="n">
+        <v>810038.8645597426</v>
+      </c>
+      <c r="K2" t="n">
+        <v>810038.8645597424</v>
+      </c>
+      <c r="L2" t="n">
+        <v>821041.7698642844</v>
+      </c>
+      <c r="M2" t="n">
+        <v>821041.7698642836</v>
+      </c>
+      <c r="N2" t="n">
+        <v>821041.7698642845</v>
+      </c>
+      <c r="O2" t="n">
+        <v>821041.7698642844</v>
+      </c>
+      <c r="P2" t="n">
         <v>821041.7698642847</v>
-      </c>
-      <c r="I2" t="n">
-        <v>821041.7698642841</v>
-      </c>
-      <c r="J2" t="n">
-        <v>802955.0695705557</v>
-      </c>
-      <c r="K2" t="n">
-        <v>804047.6217393499</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.7698642837</v>
-      </c>
-      <c r="M2" t="n">
-        <v>821041.7698642834</v>
-      </c>
-      <c r="N2" t="n">
-        <v>821041.7698642847</v>
-      </c>
-      <c r="O2" t="n">
-        <v>821041.7698642832</v>
-      </c>
-      <c r="P2" t="n">
-        <v>817821.3176653881</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>213258.8638482564</v>
+        <v>246008.6464765378</v>
       </c>
       <c r="C3" t="n">
-        <v>40032.11383957272</v>
+        <v>9036.872323545809</v>
       </c>
       <c r="D3" t="n">
-        <v>209955.7385009599</v>
+        <v>152428.4678814068</v>
       </c>
       <c r="E3" t="n">
-        <v>958230.0378865609</v>
+        <v>1012486.851418979</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>32470.05340966488</v>
+        <v>31785.0955889747</v>
       </c>
       <c r="K3" t="n">
-        <v>1527.566425055488</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>23760.59545671564</v>
+        <v>15383.8591889271</v>
       </c>
       <c r="M3" t="n">
-        <v>233791.9751377327</v>
+        <v>243877.7637551471</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>9904.302692844018</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369364.6361867068</v>
+        <v>361628.7116950951</v>
       </c>
       <c r="C4" t="n">
-        <v>359359.5572018073</v>
+        <v>359359.5572018074</v>
       </c>
       <c r="D4" t="n">
-        <v>299248.3853764266</v>
+        <v>316289.7535372814</v>
       </c>
       <c r="E4" t="n">
-        <v>40349.81915099772</v>
+        <v>40349.81915099779</v>
       </c>
       <c r="F4" t="n">
-        <v>40349.81915099772</v>
+        <v>40349.81915099771</v>
       </c>
       <c r="G4" t="n">
         <v>40349.81915099773</v>
       </c>
       <c r="H4" t="n">
-        <v>40349.8191509977</v>
+        <v>40349.81915099773</v>
       </c>
       <c r="I4" t="n">
+        <v>40349.81915099776</v>
+      </c>
+      <c r="J4" t="n">
+        <v>29476.35878375243</v>
+      </c>
+      <c r="K4" t="n">
+        <v>29476.35878375246</v>
+      </c>
+      <c r="L4" t="n">
         <v>40349.81915099773</v>
       </c>
-      <c r="J4" t="n">
-        <v>22266.85223852029</v>
-      </c>
-      <c r="K4" t="n">
-        <v>23378.7932283359</v>
-      </c>
-      <c r="L4" t="n">
-        <v>40349.81915099775</v>
-      </c>
       <c r="M4" t="n">
-        <v>40349.81915099775</v>
+        <v>40349.81915099782</v>
       </c>
       <c r="N4" t="n">
-        <v>40349.81915099773</v>
+        <v>40349.81915099772</v>
       </c>
       <c r="O4" t="n">
-        <v>40349.81915099773</v>
+        <v>40349.81915099781</v>
       </c>
       <c r="P4" t="n">
-        <v>38506.97702256295</v>
+        <v>40349.81915099781</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38818.12828675198</v>
+        <v>39951.80647487466</v>
       </c>
       <c r="C5" t="n">
         <v>40168.15106521523</v>
       </c>
       <c r="D5" t="n">
-        <v>51322.52269480262</v>
+        <v>47717.48407746367</v>
       </c>
       <c r="E5" t="n">
         <v>95106.43410215528</v>
@@ -26482,34 +26484,34 @@
         <v>95106.43410215527</v>
       </c>
       <c r="G5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="H5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="I5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="J5" t="n">
+        <v>97707.59892108795</v>
+      </c>
+      <c r="K5" t="n">
+        <v>97707.59892108792</v>
+      </c>
+      <c r="L5" t="n">
         <v>95106.43410215527</v>
       </c>
-      <c r="H5" t="n">
+      <c r="M5" t="n">
+        <v>95106.43410215525</v>
+      </c>
+      <c r="N5" t="n">
         <v>95106.43410215527</v>
       </c>
-      <c r="I5" t="n">
+      <c r="O5" t="n">
         <v>95106.43410215527</v>
       </c>
-      <c r="J5" t="n">
-        <v>99576.22009019181</v>
-      </c>
-      <c r="K5" t="n">
-        <v>99288.01777574382</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="P5" t="n">
         <v>95106.43410215528</v>
-      </c>
-      <c r="M5" t="n">
-        <v>95106.43410215528</v>
-      </c>
-      <c r="N5" t="n">
-        <v>95106.43410215528</v>
-      </c>
-      <c r="O5" t="n">
-        <v>95106.43410215528</v>
-      </c>
-      <c r="P5" t="n">
-        <v>94945.90787492029</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>198999.4314051936</v>
+        <v>173449.4295173669</v>
       </c>
       <c r="C6" t="n">
-        <v>381481.9477576879</v>
+        <v>412477.1892737146</v>
       </c>
       <c r="D6" t="n">
-        <v>260515.1232920946</v>
+        <v>304606.0643681309</v>
       </c>
       <c r="E6" t="n">
-        <v>-272644.5212754306</v>
+        <v>-326901.334807848</v>
       </c>
       <c r="F6" t="n">
-        <v>685585.5166111306</v>
+        <v>685585.516611131</v>
       </c>
       <c r="G6" t="n">
-        <v>685585.5166111313</v>
+        <v>685585.5166111314</v>
       </c>
       <c r="H6" t="n">
-        <v>685585.5166111317</v>
+        <v>685585.5166111307</v>
       </c>
       <c r="I6" t="n">
-        <v>685585.5166111311</v>
+        <v>685585.5166111307</v>
       </c>
       <c r="J6" t="n">
-        <v>648641.9438321787</v>
+        <v>651069.8112659276</v>
       </c>
       <c r="K6" t="n">
-        <v>679853.2443102146</v>
+        <v>682854.9068549022</v>
       </c>
       <c r="L6" t="n">
-        <v>661824.921154415</v>
+        <v>670201.6574222044</v>
       </c>
       <c r="M6" t="n">
-        <v>451793.5414733976</v>
+        <v>441707.7528559836</v>
       </c>
       <c r="N6" t="n">
-        <v>685585.5166111316</v>
+        <v>685585.5166111315</v>
       </c>
       <c r="O6" t="n">
-        <v>685585.5166111302</v>
+        <v>675681.2139182873</v>
       </c>
       <c r="P6" t="n">
-        <v>684368.4327679048</v>
+        <v>685585.5166111315</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="K2" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="L2" t="n">
         <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="P2" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>218.9203993420147</v>
+        <v>250.3401078942955</v>
       </c>
       <c r="C3" t="n">
         <v>260.2641716713856</v>
       </c>
       <c r="D3" t="n">
-        <v>465.5795882624672</v>
+        <v>413.0869294981472</v>
       </c>
       <c r="E3" t="n">
         <v>1278.159870620123</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.876045741711437</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="C4" t="n">
         <v>14.2564493878129</v>
       </c>
       <c r="D4" t="n">
-        <v>124.1001261625138</v>
+        <v>83.62810878954042</v>
       </c>
       <c r="E4" t="n">
         <v>1062.255112188953</v>
@@ -26811,22 +26813,22 @@
         <v>1062.255112188953</v>
       </c>
       <c r="J4" t="n">
-        <v>1179.479192609756</v>
+        <v>1131.626771590681</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.098788963654</v>
+        <v>1131.62677159068</v>
       </c>
       <c r="L4" t="n">
         <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="N4" t="n">
         <v>1062.255112188953</v>
       </c>
       <c r="O4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="P4" t="n">
         <v>1062.255112188953</v>
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>12.38037836605507</v>
       </c>
       <c r="K2" t="n">
-        <v>1.90945803131936</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>29.70074432089455</v>
+        <v>19.22982398615887</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>12.38037836605516</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>218.9203993420147</v>
+        <v>250.3401078942955</v>
       </c>
       <c r="C3" t="n">
-        <v>41.34377232937092</v>
+        <v>9.924063777090112</v>
       </c>
       <c r="D3" t="n">
-        <v>205.3154165910816</v>
+        <v>152.8227578267616</v>
       </c>
       <c r="E3" t="n">
-        <v>812.5802823576555</v>
+        <v>865.0729411219756</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.876045741711437</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="C4" t="n">
-        <v>7.38040364610146</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>109.8436767747009</v>
+        <v>69.37165940172753</v>
       </c>
       <c r="E4" t="n">
-        <v>938.154986026439</v>
+        <v>978.6270033994124</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>124.1001261625142</v>
+        <v>83.62810878954093</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,16 +27044,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>938.154986026439</v>
+        <v>978.6270033994119</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>12.38037836605507</v>
       </c>
       <c r="P2" t="n">
-        <v>1.90945803131936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741711437</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="K4" t="n">
-        <v>7.38040364610146</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>109.8436767747009</v>
+        <v>69.37165940172753</v>
       </c>
       <c r="M4" t="n">
-        <v>938.154986026439</v>
+        <v>978.6270033994124</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>352.715811150222</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>392.6195963538985</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>330.4616622574299</v>
+        <v>329.1680860153754</v>
       </c>
       <c r="I2" t="n">
-        <v>170.490106890622</v>
+        <v>171.6769468182659</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>87.70962080177861</v>
+        <v>72.39487236232154</v>
       </c>
       <c r="S2" t="n">
-        <v>188.965200842502</v>
+        <v>186.0869029183408</v>
       </c>
       <c r="T2" t="n">
-        <v>219.2432905767156</v>
+        <v>218.6903668613885</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2752463472441</v>
+        <v>251.2651415163529</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27464,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>150.7690347136895</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.8726317759467</v>
+        <v>136.8050497613248</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8116369914726</v>
+        <v>107.0349827498621</v>
       </c>
       <c r="I3" t="n">
-        <v>73.18413157938852</v>
+        <v>70.85729467245073</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>70.92163440655293</v>
+        <v>66.72562125309928</v>
       </c>
       <c r="S3" t="n">
-        <v>162.9366815640885</v>
+        <v>161.6813752837214</v>
       </c>
       <c r="T3" t="n">
-        <v>192.2103090489626</v>
+        <v>183.7378778055478</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9104027791811</v>
+        <v>225.9059565940086</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>218.5441377616124</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>237.4385337731067</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>193.1256151565188</v>
       </c>
     </row>
     <row r="4">
@@ -27540,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>136.0583923974268</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>132.1775132587563</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.596204867842</v>
+        <v>153.2830969891971</v>
       </c>
       <c r="H4" t="n">
-        <v>158.7172683999561</v>
+        <v>158.2135229087409</v>
       </c>
       <c r="I4" t="n">
-        <v>143.578529336711</v>
+        <v>141.8746539942365</v>
       </c>
       <c r="J4" t="n">
-        <v>65.44862363006871</v>
+        <v>61.4428683282476</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.10506295105017</v>
+        <v>34.10423757184287</v>
       </c>
       <c r="R4" t="n">
-        <v>159.5428947354383</v>
+        <v>156.9953229567566</v>
       </c>
       <c r="S4" t="n">
-        <v>210.2607095815126</v>
+        <v>216.1493523511794</v>
       </c>
       <c r="T4" t="n">
-        <v>219.3827799539349</v>
+        <v>226.0167394166369</v>
       </c>
       <c r="U4" t="n">
-        <v>280.2410751131578</v>
+        <v>286.294405739321</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>279.6469525948796</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>342.1259609998974</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>316.2024232110435</v>
+        <v>328.7595038318291</v>
       </c>
       <c r="I5" t="n">
         <v>170.1388665418186</v>
@@ -27667,7 +27669,7 @@
         <v>185.1777788848918</v>
       </c>
       <c r="T5" t="n">
-        <v>204.2592738989657</v>
+        <v>218.5157232867786</v>
       </c>
       <c r="U5" t="n">
         <v>251.2619498576507</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>371.9814892682407</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153.9761030290817</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27713,7 +27715,7 @@
         <v>92.57237498056668</v>
       </c>
       <c r="I6" t="n">
-        <v>55.8659028256741</v>
+        <v>70.12235221348699</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>65.40029062264185</v>
+        <v>51.14384123482895</v>
       </c>
       <c r="S6" t="n">
         <v>161.2848808488537</v>
@@ -27749,7 +27751,7 @@
         <v>197.9082874328782</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9045522453609</v>
+        <v>213.3474716245753</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>165.5755307941244</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>132.8639674021456</v>
       </c>
       <c r="G7" t="n">
         <v>167.5216505242973</v>
@@ -27816,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>32.60570394150226</v>
+        <v>46.86215332931516</v>
       </c>
       <c r="R7" t="n">
         <v>156.1906603429617</v>
       </c>
       <c r="S7" t="n">
-        <v>201.5810270574537</v>
+        <v>215.8374764452666</v>
       </c>
       <c r="T7" t="n">
-        <v>211.6838259308694</v>
+        <v>225.9402753186823</v>
       </c>
       <c r="U7" t="n">
         <v>286.2934296019002</v>
@@ -27834,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>273.9659177158054</v>
+        <v>272.2665489487781</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>211.4532060012243</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>258.6337155009668</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>323.247936952171</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>330.0139777527377</v>
       </c>
       <c r="H8" t="n">
-        <v>320.3064927356948</v>
+        <v>322.4676603399967</v>
       </c>
       <c r="I8" t="n">
-        <v>138.3180721774862</v>
+        <v>146.4536429393413</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>166.3692359479299</v>
+        <v>171.1779855422693</v>
       </c>
       <c r="T8" t="n">
-        <v>214.9025846490803</v>
+        <v>187.7199629760523</v>
       </c>
       <c r="U8" t="n">
-        <v>127.095792606384</v>
+        <v>251.212800830008</v>
       </c>
       <c r="V8" t="n">
-        <v>271.0493779936174</v>
+        <v>244.1241496805945</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.1378124935398</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,25 +27934,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>48.60837282580195</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>33.54495429288716</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>20.96908623087009</v>
+        <v>71.4095741715567</v>
       </c>
       <c r="G9" t="n">
-        <v>129.5983778278612</v>
+        <v>136.4549905601392</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>103.6541478331482</v>
       </c>
       <c r="I9" t="n">
-        <v>54.91738975839274</v>
+        <v>58.80481778952398</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>37.9809978182706</v>
+        <v>44.99124383211696</v>
       </c>
       <c r="S9" t="n">
-        <v>153.0819488746723</v>
+        <v>155.1791791564355</v>
       </c>
       <c r="T9" t="n">
-        <v>196.1282415097913</v>
+        <v>196.5833429570028</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8754981769754</v>
+        <v>142.2548175938639</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>122.1448764139371</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>122.0545869877639</v>
       </c>
     </row>
     <row r="10">
@@ -28014,25 +28016,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>24.51534685569857</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>95.54732669857825</v>
       </c>
       <c r="G10" t="n">
-        <v>167.151409609133</v>
+        <v>167.2460685019867</v>
       </c>
       <c r="H10" t="n">
-        <v>154.7626341907069</v>
+        <v>155.6042378017152</v>
       </c>
       <c r="I10" t="n">
-        <v>6.102196666838893</v>
+        <v>133.0489738980801</v>
       </c>
       <c r="J10" t="n">
-        <v>34.00159883934151</v>
+        <v>40.69398256409752</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>139.5432824665767</v>
+        <v>143.7994905034345</v>
       </c>
       <c r="S10" t="n">
-        <v>209.3851870419042</v>
+        <v>211.0348333837272</v>
       </c>
       <c r="T10" t="n">
-        <v>100.2582107004667</v>
+        <v>141.1346797065422</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2732346428913</v>
+        <v>202.6502890656884</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>168.5095345342876</v>
       </c>
       <c r="W10" t="n">
-        <v>193.0751326367107</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I11" t="n">
         <v>12.38037836605497</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="J13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="K13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="L13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="M13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="N13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="O13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="P13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="R13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="S13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C14" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D14" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E14" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F14" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G14" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H14" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I14" t="n">
         <v>12.38037836605497</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T14" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U14" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V14" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W14" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X14" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C16" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D16" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E16" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F16" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G16" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H16" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I16" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J16" t="n">
-        <v>31.6102023522153</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K16" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L16" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M16" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N16" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O16" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P16" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R16" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S16" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T16" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U16" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V16" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W16" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X16" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605497</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605497</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>12.380378366055</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="C29" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="D29" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="E29" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="F29" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="G29" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="H29" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="I29" t="n">
-        <v>1.909458031319385</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="T29" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="U29" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="V29" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="W29" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="X29" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="C31" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="D31" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="E31" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="F31" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="G31" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="H31" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="I31" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="J31" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="K31" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="L31" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="M31" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="N31" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="O31" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="P31" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="R31" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="S31" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="T31" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="U31" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="V31" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="W31" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="X31" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.909458031319385</v>
+        <v>12.3803783660551</v>
       </c>
     </row>
     <row r="32">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605497</v>
+        <v>12.3803783660569</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C44" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D44" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E44" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F44" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G44" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H44" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T44" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U44" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V44" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W44" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X44" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y44" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C46" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D46" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E46" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F46" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G46" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H46" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I46" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="J46" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="K46" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="L46" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="M46" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="N46" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="O46" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="P46" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="R46" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="S46" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T46" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U46" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V46" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W46" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X46" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.70074432089459</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8800820074050835</v>
+        <v>1.006392393544906</v>
       </c>
       <c r="H2" t="n">
-        <v>9.013139858337313</v>
+        <v>10.30671610039177</v>
       </c>
       <c r="I2" t="n">
-        <v>33.92936159048452</v>
+        <v>38.79894275214001</v>
       </c>
       <c r="J2" t="n">
-        <v>74.69586027599728</v>
+        <v>85.41629641163202</v>
       </c>
       <c r="K2" t="n">
-        <v>111.9497316494545</v>
+        <v>128.0168864303879</v>
       </c>
       <c r="L2" t="n">
-        <v>138.8835413835778</v>
+        <v>158.8162676443378</v>
       </c>
       <c r="M2" t="n">
-        <v>154.534699782768</v>
+        <v>176.7136983730421</v>
       </c>
       <c r="N2" t="n">
-        <v>157.0352327863077</v>
+        <v>179.5731107612015</v>
       </c>
       <c r="O2" t="n">
-        <v>148.2839173251734</v>
+        <v>169.5657963978894</v>
       </c>
       <c r="P2" t="n">
-        <v>126.5568927673604</v>
+        <v>144.7204841822495</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.03895587716578</v>
+        <v>108.6790565884225</v>
       </c>
       <c r="R2" t="n">
-        <v>55.28345139765963</v>
+        <v>63.21779619101525</v>
       </c>
       <c r="S2" t="n">
-        <v>20.05486874374336</v>
+        <v>22.93316666790456</v>
       </c>
       <c r="T2" t="n">
-        <v>3.852558987415755</v>
+        <v>4.405482702742828</v>
       </c>
       <c r="U2" t="n">
-        <v>0.07040656059240667</v>
+        <v>0.08051139148359245</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4708853872639561</v>
+        <v>0.5384674018858432</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547761503312419</v>
+        <v>5.200461486634328</v>
       </c>
       <c r="I3" t="n">
-        <v>16.21250127202656</v>
+        <v>18.53933817896434</v>
       </c>
       <c r="J3" t="n">
-        <v>44.48834266251264</v>
+        <v>50.8733609825568</v>
       </c>
       <c r="K3" t="n">
-        <v>76.03766360919769</v>
+        <v>86.95067690890828</v>
       </c>
       <c r="L3" t="n">
-        <v>102.2420223530796</v>
+        <v>116.9159154840292</v>
       </c>
       <c r="M3" t="n">
-        <v>119.311617641398</v>
+        <v>136.435358802391</v>
       </c>
       <c r="N3" t="n">
-        <v>122.4694411375673</v>
+        <v>140.0463967738097</v>
       </c>
       <c r="O3" t="n">
-        <v>112.0356122934554</v>
+        <v>128.1150927636023</v>
       </c>
       <c r="P3" t="n">
-        <v>89.91845609955318</v>
+        <v>102.8236567688853</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.10810662688676</v>
+        <v>68.73489151090168</v>
       </c>
       <c r="R3" t="n">
-        <v>29.2361997460902</v>
+        <v>33.43221289954386</v>
       </c>
       <c r="S3" t="n">
-        <v>8.746489539749355</v>
+        <v>10.00179582011642</v>
       </c>
       <c r="T3" t="n">
-        <v>1.897998556559542</v>
+        <v>2.170401501460919</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03097930179368134</v>
+        <v>0.0354254869661739</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3947744906167477</v>
+        <v>0.4514329814487295</v>
       </c>
       <c r="H4" t="n">
-        <v>3.509904107483451</v>
+        <v>4.013649598698708</v>
       </c>
       <c r="I4" t="n">
-        <v>11.87194559054729</v>
+        <v>13.5758209330218</v>
       </c>
       <c r="J4" t="n">
-        <v>27.91055648660407</v>
+        <v>31.91631178842518</v>
       </c>
       <c r="K4" t="n">
-        <v>45.86561809165487</v>
+        <v>52.44830457195238</v>
       </c>
       <c r="L4" t="n">
-        <v>58.69220017769358</v>
+        <v>67.11577253284113</v>
       </c>
       <c r="M4" t="n">
-        <v>61.88269583367801</v>
+        <v>70.76417181018584</v>
       </c>
       <c r="N4" t="n">
-        <v>60.41126364137927</v>
+        <v>69.08155797024064</v>
       </c>
       <c r="O4" t="n">
-        <v>55.79957981917451</v>
+        <v>63.80799995968045</v>
       </c>
       <c r="P4" t="n">
-        <v>47.74618021059282</v>
+        <v>54.59876713812632</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.05698030064422</v>
+        <v>37.80135629203862</v>
       </c>
       <c r="R4" t="n">
-        <v>17.75049664173122</v>
+        <v>20.29806842041287</v>
       </c>
       <c r="S4" t="n">
-        <v>6.879842713748229</v>
+        <v>7.867245685792857</v>
       </c>
       <c r="T4" t="n">
-        <v>1.686763732635195</v>
+        <v>1.928850011644571</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02153315403364081</v>
+        <v>0.02462361716993073</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.871676736733535</v>
+        <v>1.660650972856872</v>
       </c>
       <c r="H8" t="n">
-        <v>19.16830938007232</v>
+        <v>17.00714177577044</v>
       </c>
       <c r="I8" t="n">
-        <v>72.15781739291968</v>
+        <v>64.02224663106462</v>
       </c>
       <c r="J8" t="n">
-        <v>158.856223434338</v>
+        <v>140.9456755075111</v>
       </c>
       <c r="K8" t="n">
-        <v>238.0842997002686</v>
+        <v>211.2410311885425</v>
       </c>
       <c r="L8" t="n">
-        <v>295.3646266320776</v>
+        <v>262.0631783991111</v>
       </c>
       <c r="M8" t="n">
-        <v>328.6500577989626</v>
+        <v>291.5957801376544</v>
       </c>
       <c r="N8" t="n">
-        <v>333.9679593272068</v>
+        <v>296.314104714284</v>
       </c>
       <c r="O8" t="n">
-        <v>315.3564737763127</v>
+        <v>279.8010066029385</v>
       </c>
       <c r="P8" t="n">
-        <v>269.1494543382035</v>
+        <v>238.8036857105344</v>
       </c>
       <c r="Q8" t="n">
-        <v>202.1200312039337</v>
+        <v>179.3316227450976</v>
       </c>
       <c r="R8" t="n">
-        <v>117.571713813838</v>
+        <v>104.3158666737206</v>
       </c>
       <c r="S8" t="n">
-        <v>42.65083363831548</v>
+        <v>37.84208404397601</v>
       </c>
       <c r="T8" t="n">
-        <v>8.193264915051055</v>
+        <v>7.26949963368096</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1497341389386828</v>
+        <v>0.1328520778285497</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.001435340790967</v>
+        <v>0.8885266030714865</v>
       </c>
       <c r="H9" t="n">
-        <v>9.671757107112764</v>
+        <v>8.581296403348304</v>
       </c>
       <c r="I9" t="n">
-        <v>34.47924309302234</v>
+        <v>30.59181506189109</v>
       </c>
       <c r="J9" t="n">
-        <v>94.61367840341329</v>
+        <v>83.94627875773199</v>
       </c>
       <c r="K9" t="n">
-        <v>161.7098462364081</v>
+        <v>143.4775611635216</v>
       </c>
       <c r="L9" t="n">
-        <v>217.4388444993721</v>
+        <v>192.9232872151489</v>
       </c>
       <c r="M9" t="n">
-        <v>253.7408756030446</v>
+        <v>225.1323765764902</v>
       </c>
       <c r="N9" t="n">
-        <v>255.4418382458471</v>
+        <v>214.9698208728737</v>
       </c>
       <c r="O9" t="n">
-        <v>238.2669426837175</v>
+        <v>211.4030817404339</v>
       </c>
       <c r="P9" t="n">
-        <v>191.2302274884085</v>
+        <v>169.6696107216069</v>
       </c>
       <c r="Q9" t="n">
-        <v>127.8323427999136</v>
+        <v>113.4196414727743</v>
       </c>
       <c r="R9" t="n">
-        <v>62.17683633437253</v>
+        <v>55.16659032052617</v>
       </c>
       <c r="S9" t="n">
-        <v>18.60122222916554</v>
+        <v>16.50399194740238</v>
       </c>
       <c r="T9" t="n">
-        <v>4.036487185030257</v>
+        <v>3.581385737818841</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06588390399940576</v>
+        <v>0.05845569757049255</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8395697493257605</v>
+        <v>0.7449108564720686</v>
       </c>
       <c r="H10" t="n">
-        <v>7.464538316732676</v>
+        <v>6.622934705724397</v>
       </c>
       <c r="I10" t="n">
-        <v>25.2481520979056</v>
+        <v>22.40150102917822</v>
       </c>
       <c r="J10" t="n">
-        <v>59.35758127733126</v>
+        <v>52.66519755257525</v>
       </c>
       <c r="K10" t="n">
-        <v>97.54273996712014</v>
+        <v>86.54509768830032</v>
       </c>
       <c r="L10" t="n">
-        <v>124.8211243679408</v>
+        <v>110.7479286067656</v>
       </c>
       <c r="M10" t="n">
-        <v>131.6063744329462</v>
+        <v>116.7681627104352</v>
       </c>
       <c r="N10" t="n">
-        <v>128.4770690036412</v>
+        <v>113.9916767908576</v>
       </c>
       <c r="O10" t="n">
-        <v>118.669367841063</v>
+        <v>105.2897636038884</v>
       </c>
       <c r="P10" t="n">
-        <v>101.5421449548174</v>
+        <v>90.09358213185816</v>
       </c>
       <c r="Q10" t="n">
-        <v>70.30251782763254</v>
+        <v>62.37612635422023</v>
       </c>
       <c r="R10" t="n">
-        <v>37.75010891059282</v>
+        <v>33.493900873735</v>
       </c>
       <c r="S10" t="n">
-        <v>14.63141099506802</v>
+        <v>12.98176465324505</v>
       </c>
       <c r="T10" t="n">
-        <v>3.587252565300976</v>
+        <v>3.182800932198838</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04579471359958699</v>
+        <v>0.04063150126211288</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,13 +31849,13 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M12" t="n">
-        <v>626.8739812799222</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>573.1387203886727</v>
       </c>
       <c r="O12" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>524.986079689235</v>
@@ -32084,13 +32086,13 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M15" t="n">
-        <v>626.8739812799222</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1164009578283</v>
+        <v>584.3932527497839</v>
       </c>
       <c r="P15" t="n">
         <v>524.986079689235</v>
@@ -32315,16 +32317,16 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
-        <v>249.6234851251524</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N18" t="n">
-        <v>715.0339827160628</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>654.1164009578283</v>
@@ -32333,10 +32335,10 @@
         <v>524.986079689235</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691326</v>
+        <v>256.2010137373307</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S18" t="n">
         <v>51.06610426486996</v>
@@ -32558,13 +32560,13 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>626.8739812799222</v>
+        <v>529.6867378368194</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>524.986079689235</v>
@@ -32573,7 +32575,7 @@
         <v>350.9392912691326</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486996</v>
@@ -32789,7 +32791,7 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K24" t="n">
-        <v>443.943509024727</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>596.9368339155584</v>
@@ -32801,13 +32803,13 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>602.6701715750701</v>
+        <v>306.8030521674222</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,7 +33025,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
         <v>443.943509024727</v>
@@ -33032,7 +33034,7 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
-        <v>696.5971294879669</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>715.0339827160628</v>
@@ -33041,13 +33043,13 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q27" t="n">
-        <v>221.4417083481821</v>
+        <v>226.97183867055</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486996</v>
@@ -33263,10 +33265,10 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
-        <v>443.943509024727</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>596.9368339155584</v>
+        <v>224.6083558013952</v>
       </c>
       <c r="M30" t="n">
         <v>696.5971294879669</v>
@@ -33275,16 +33277,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O30" t="n">
-        <v>602.6701715750701</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33497,13 +33499,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
-        <v>382.529648770071</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
         <v>696.5971294879669</v>
@@ -33512,13 +33514,13 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P33" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,19 +33736,19 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
         <v>443.943509024727</v>
       </c>
       <c r="L36" t="n">
-        <v>596.9368339155584</v>
+        <v>502.1985563837565</v>
       </c>
       <c r="M36" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
-        <v>194.5247275202073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>654.1164009578283</v>
@@ -33758,7 +33760,7 @@
         <v>350.9392912691326</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486996</v>
@@ -33974,28 +33976,28 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
-        <v>443.943509024727</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
-        <v>696.5971294879669</v>
+        <v>349.2837806975606</v>
       </c>
       <c r="N39" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P39" t="n">
-        <v>358.0756880380876</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q39" t="n">
         <v>350.9392912691326</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486996</v>
@@ -34211,19 +34213,19 @@
         <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
-        <v>443.943509024727</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>596.9368339155584</v>
+        <v>224.608355801395</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>559.3781234260266</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P42" t="n">
         <v>524.986079689235</v>
@@ -34457,10 +34459,10 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
-        <v>494.9858886872157</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578283</v>
+        <v>434.0683069289812</v>
       </c>
       <c r="P45" t="n">
         <v>524.986079689235</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>13.68043123072955</v>
       </c>
       <c r="M2" t="n">
-        <v>6.598225711743296</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="P2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.876045741711437</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.598225711743296</v>
+        <v>4.975746540253151</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6.876045741711437</v>
+        <v>8.704684690476398</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.876045741711437</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.876045741711437</v>
+        <v>13.68043123072955</v>
       </c>
       <c r="M4" t="n">
-        <v>6.876045741711437</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="N4" t="n">
-        <v>6.876045741711437</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="O4" t="n">
-        <v>6.598225711743297</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34936,16 +34938,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>14.2564493878129</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>13.68043123072955</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>14.2564493878129</v>
@@ -34954,7 +34956,7 @@
         <v>14.2564493878129</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,7 +35020,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>13.68043123072955</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.2564493878129</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35100,13 +35102,13 @@
         <v>13.68043123072955</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>14.2564493878129</v>
       </c>
       <c r="N7" t="n">
         <v>14.2564493878129</v>
       </c>
       <c r="O7" t="n">
-        <v>14.2564493878129</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>14.2564493878129</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>83.62810878954042</v>
       </c>
       <c r="K8" t="n">
-        <v>105.7547052364825</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>59.59821166209036</v>
+        <v>26.29676342912381</v>
       </c>
       <c r="M8" t="n">
-        <v>98.30382457168983</v>
+        <v>61.24954691038167</v>
       </c>
       <c r="N8" t="n">
-        <v>104.5548957306158</v>
+        <v>66.90104111769313</v>
       </c>
       <c r="O8" t="n">
-        <v>85.25826235462594</v>
+        <v>49.70279518125173</v>
       </c>
       <c r="P8" t="n">
-        <v>37.91645858293396</v>
+        <v>43.35526624372483</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>23.86840726204909</v>
+        <v>5.636122189162563</v>
       </c>
       <c r="L9" t="n">
-        <v>78.88446471949791</v>
+        <v>54.36890743527468</v>
       </c>
       <c r="M9" t="n">
-        <v>111.6068416810263</v>
+        <v>82.99834265447186</v>
       </c>
       <c r="N9" t="n">
-        <v>124.1001261625138</v>
+        <v>83.62810878954042</v>
       </c>
       <c r="O9" t="n">
-        <v>95.67069823927309</v>
+        <v>68.80683729598942</v>
       </c>
       <c r="P9" t="n">
-        <v>57.25582007407823</v>
+        <v>35.69520330727667</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>75.27324814123729</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>69.09215345246265</v>
+        <v>83.62810878954042</v>
       </c>
       <c r="M10" t="n">
-        <v>124.1001261625138</v>
+        <v>83.62810878954042</v>
       </c>
       <c r="N10" t="n">
-        <v>124.1001261625138</v>
+        <v>83.62810878954042</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>80.24919530309433</v>
       </c>
       <c r="P10" t="n">
-        <v>98.82070421971088</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K11" t="n">
-        <v>433.5251384721837</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L11" t="n">
         <v>575.1007761169878</v>
@@ -35495,13 +35497,13 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M12" t="n">
-        <v>484.7399473579039</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>441.7970083053394</v>
       </c>
       <c r="O12" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>391.0116722749048</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K13" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L13" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M13" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N13" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O13" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P13" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35655,7 @@
         <v>575.1007761169878</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381577</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N14" t="n">
         <v>687.4322072151681</v>
@@ -35732,13 +35734,13 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M15" t="n">
-        <v>484.7399473579039</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>511.5201565133839</v>
+        <v>441.7970083053394</v>
       </c>
       <c r="P15" t="n">
         <v>391.0116722749048</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>101.2059290193572</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K16" t="n">
         <v>277.1256801414977</v>
       </c>
       <c r="L16" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M16" t="n">
         <v>432.4942538895098</v>
@@ -35820,7 +35822,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P16" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q16" t="n">
         <v>138.4502995641581</v>
@@ -35902,7 +35904,7 @@
         <v>507.665444827693</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227526</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R17" t="n">
         <v>107.1851555440239</v>
@@ -35963,16 +35965,16 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>111.0691053452782</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327296</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>511.5201565133839</v>
@@ -35981,10 +35983,10 @@
         <v>391.0116722749048</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831111</v>
+        <v>116.2192396513092</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,22 +36044,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O19" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q19" t="n">
         <v>138.4502995641581</v>
@@ -36206,13 +36208,13 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
-        <v>484.7399473579039</v>
+        <v>387.552703914801</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>391.0116722749048</v>
@@ -36221,7 +36223,7 @@
         <v>210.9575171831111</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,10 +36281,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
         <v>432.4942538895098</v>
@@ -36294,7 +36296,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q22" t="n">
         <v>138.4502995641581</v>
@@ -36361,7 +36363,7 @@
         <v>433.5251384721831</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169876</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M23" t="n">
         <v>671.8997542381569</v>
@@ -36376,7 +36378,7 @@
         <v>507.665444827693</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227526</v>
       </c>
       <c r="R23" t="n">
         <v>107.1851555440239</v>
@@ -36437,7 +36439,7 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K24" t="n">
-        <v>306.102070050368</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>458.3824541356842</v>
@@ -36449,13 +36451,13 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>460.0739271306256</v>
+        <v>164.2068077229777</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,10 +36518,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
         <v>432.4942538895098</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.0635279116842</v>
+        <v>424.160143083758</v>
       </c>
       <c r="K26" t="n">
         <v>433.5251384721831</v>
@@ -36610,10 +36612,10 @@
         <v>635.6527791348809</v>
       </c>
       <c r="P26" t="n">
-        <v>759.5104493693509</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q26" t="n">
-        <v>544.8912574826563</v>
+        <v>438.1633939282286</v>
       </c>
       <c r="R26" t="n">
         <v>107.1851555440239</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
         <v>306.102070050368</v>
@@ -36680,7 +36682,7 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
-        <v>554.4630955659486</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>583.6922706327296</v>
@@ -36689,13 +36691,13 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.45993426216059</v>
+        <v>86.99006458452845</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.59572666714186</v>
+        <v>81.97610503319686</v>
       </c>
       <c r="K28" t="n">
-        <v>245.5154777892838</v>
+        <v>257.8958561553388</v>
       </c>
       <c r="L28" t="n">
-        <v>370.2625912295209</v>
+        <v>382.6429695955759</v>
       </c>
       <c r="M28" t="n">
-        <v>400.8840515372959</v>
+        <v>413.2644299033509</v>
       </c>
       <c r="N28" t="n">
-        <v>396.8414363488768</v>
+        <v>409.2218147149318</v>
       </c>
       <c r="O28" t="n">
-        <v>350.3692208386573</v>
+        <v>362.7495992047123</v>
       </c>
       <c r="P28" t="n">
-        <v>276.0431317030919</v>
+        <v>288.423510069147</v>
       </c>
       <c r="Q28" t="n">
-        <v>106.8400972119442</v>
+        <v>119.2204755779992</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36847,7 +36849,7 @@
         <v>635.6527791348809</v>
       </c>
       <c r="P29" t="n">
-        <v>730.2870329120597</v>
+        <v>570.0341964453369</v>
       </c>
       <c r="Q29" t="n">
         <v>544.8912574826563</v>
@@ -36911,10 +36913,10 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
-        <v>306.102070050368</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>458.3824541356842</v>
+        <v>86.05397602152098</v>
       </c>
       <c r="M30" t="n">
         <v>554.4630955659486</v>
@@ -36923,16 +36925,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O30" t="n">
-        <v>460.0739271306256</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>71.50518469846125</v>
+        <v>81.97610503319696</v>
       </c>
       <c r="K31" t="n">
-        <v>247.4249358206032</v>
+        <v>257.8958561553389</v>
       </c>
       <c r="L31" t="n">
-        <v>372.1720492608403</v>
+        <v>382.642969595576</v>
       </c>
       <c r="M31" t="n">
-        <v>402.7935095686153</v>
+        <v>413.264429903351</v>
       </c>
       <c r="N31" t="n">
-        <v>398.7508943801961</v>
+        <v>409.2218147149319</v>
       </c>
       <c r="O31" t="n">
-        <v>352.2786788699767</v>
+        <v>362.7495992047124</v>
       </c>
       <c r="P31" t="n">
-        <v>277.9525897344113</v>
+        <v>288.423510069147</v>
       </c>
       <c r="Q31" t="n">
-        <v>108.7495552432635</v>
+        <v>119.2204755779993</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>255.0635279116842</v>
       </c>
       <c r="K32" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721837</v>
       </c>
       <c r="L32" t="n">
         <v>575.1007761169878</v>
@@ -37090,7 +37092,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R32" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
-        <v>243.9752689901968</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659486</v>
@@ -37160,13 +37162,13 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R35" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
         <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
-        <v>458.3824541356842</v>
+        <v>363.6441766038823</v>
       </c>
       <c r="M36" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>63.18301543687397</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>511.5201565133839</v>
@@ -37406,7 +37408,7 @@
         <v>210.9575171831111</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37475,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
         <v>381.9794231908712</v>
@@ -37622,28 +37624,28 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
-        <v>306.102070050368</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
-        <v>554.4630955659486</v>
+        <v>207.1497467755423</v>
       </c>
       <c r="N39" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P39" t="n">
-        <v>224.1012806237574</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q39" t="n">
         <v>210.9575171831111</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37704,7 +37706,7 @@
         <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M40" t="n">
         <v>432.4942538895098</v>
@@ -37786,7 +37788,7 @@
         <v>575.1007761169878</v>
       </c>
       <c r="M41" t="n">
-        <v>671.8997542381577</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N41" t="n">
         <v>687.4322072151681</v>
@@ -37859,19 +37861,19 @@
         <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
-        <v>306.102070050368</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>458.3824541356842</v>
+        <v>86.05397602152078</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>416.7818789815822</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P42" t="n">
         <v>391.0116722749048</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P43" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>332.5762668227516</v>
       </c>
       <c r="R44" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,10 +38107,10 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>363.6441766038824</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133839</v>
+        <v>291.4720624845368</v>
       </c>
       <c r="P45" t="n">
         <v>391.0116722749048</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>99.29647098803645</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K46" t="n">
-        <v>275.2162221101784</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L46" t="n">
-        <v>399.9633355504155</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
-        <v>430.5847958581904</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N46" t="n">
-        <v>426.5421806697714</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O46" t="n">
-        <v>380.0699651595519</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P46" t="n">
-        <v>305.7438760239866</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q46" t="n">
-        <v>136.5408415328387</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
